--- a/Classifiche.xlsx
+++ b/Classifiche.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lorenzoparenti/Desktop/Gran Turismo™ 7/classifiche/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8049EC2-3506-424E-8D37-1042F1774900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA635B81-1589-324C-8D1C-5693A2444774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1280" yWindow="1000" windowWidth="27140" windowHeight="16440" activeTab="4" xr2:uid="{0ECEFD28-5025-934F-A4E5-815ACDF49090}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1919" uniqueCount="99">
   <si>
     <t>1st</t>
   </si>
@@ -334,6 +334,9 @@
   </si>
   <si>
     <t>0</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -961,8 +964,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E806F17-8342-294C-B7C1-439FEE93D10C}">
   <dimension ref="A1:AA15"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="AA2" sqref="AA2:AA15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1055,19 +1058,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="C2" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" s="7">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E2" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" s="8">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -1130,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="AA2" s="9">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="17" x14ac:dyDescent="0.2">
@@ -1138,19 +1141,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" s="7">
-        <v>0</v>
+        <v>68</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="D3" s="7">
-        <v>0</v>
-      </c>
-      <c r="E3" s="7">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="F3" s="8">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -1213,7 +1216,7 @@
         <v>0</v>
       </c>
       <c r="AA3" s="9">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="17" x14ac:dyDescent="0.2">
@@ -1221,19 +1224,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" s="7">
-        <v>0</v>
+        <v>60</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
-      </c>
-      <c r="E4" s="7">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="F4" s="8">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G4" s="7">
         <v>0</v>
@@ -1296,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="AA4" s="9">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="17" x14ac:dyDescent="0.2">
@@ -1304,19 +1307,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" s="7">
-        <v>0</v>
+        <v>66</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
-      </c>
-      <c r="E5" s="7">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="F5" s="8">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G5" s="7">
         <v>0</v>
@@ -1379,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="AA5" s="9">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:27" ht="17" x14ac:dyDescent="0.2">
@@ -1387,19 +1390,19 @@
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" s="7">
-        <v>0</v>
+        <v>58</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="D6" s="7">
-        <v>0</v>
-      </c>
-      <c r="E6" s="7">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="F6" s="8">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G6" s="7">
         <v>0</v>
@@ -1462,7 +1465,7 @@
         <v>0</v>
       </c>
       <c r="AA6" s="9">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="17" x14ac:dyDescent="0.2">
@@ -1472,17 +1475,17 @@
       <c r="B7" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="7">
-        <v>0</v>
+      <c r="C7" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
-      </c>
-      <c r="E7" s="7">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="F7" s="8">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7">
         <v>0</v>
@@ -1545,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="AA7" s="9">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:27" ht="17" x14ac:dyDescent="0.2">
@@ -1555,17 +1558,17 @@
       <c r="B8" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="7">
-        <v>0</v>
+      <c r="C8" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
-      </c>
-      <c r="E8" s="7">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="F8" s="8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G8" s="7">
         <v>0</v>
@@ -1628,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="AA8" s="9">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:27" ht="17" x14ac:dyDescent="0.2">
@@ -1636,19 +1639,19 @@
         <v>7</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="C9" s="7">
-        <v>0</v>
+        <v>56</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="D9" s="7">
-        <v>0</v>
-      </c>
-      <c r="E9" s="7">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="F9" s="8">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G9" s="7">
         <v>0</v>
@@ -1711,7 +1714,7 @@
         <v>0</v>
       </c>
       <c r="AA9" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="17" x14ac:dyDescent="0.2">
@@ -1719,19 +1722,19 @@
         <v>8</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
+      </c>
+      <c r="D10" s="14">
+        <v>6</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F10" s="8">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G10" s="7">
         <v>0</v>
@@ -1794,7 +1797,7 @@
         <v>0</v>
       </c>
       <c r="AA10" s="9">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:27" ht="17" x14ac:dyDescent="0.2">
@@ -1802,19 +1805,19 @@
         <v>9</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C11" s="7">
-        <v>0</v>
+        <v>57</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
-      </c>
-      <c r="E11" s="7">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="F11" s="8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G11" s="7">
         <v>0</v>
@@ -1877,7 +1880,7 @@
         <v>0</v>
       </c>
       <c r="AA11" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:27" ht="17" x14ac:dyDescent="0.2">
@@ -1885,19 +1888,19 @@
         <v>10</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
+      </c>
+      <c r="D12" s="14">
+        <v>4</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F12" s="8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G12" s="7">
         <v>0</v>
@@ -1960,7 +1963,7 @@
         <v>0</v>
       </c>
       <c r="AA12" s="9">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:27" ht="17" x14ac:dyDescent="0.2">
@@ -1968,19 +1971,19 @@
         <v>11</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
+      </c>
+      <c r="D13" s="14">
+        <v>3</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F13" s="8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G13" s="7">
         <v>0</v>
@@ -2043,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="AA13" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="17" x14ac:dyDescent="0.2">
@@ -2051,19 +2054,19 @@
         <v>12</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="F14" s="8">
-        <v>0</v>
+        <v>98</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="G14" s="14" t="s">
         <v>97</v>
@@ -2125,8 +2128,8 @@
       <c r="Z14" s="8">
         <v>0</v>
       </c>
-      <c r="AA14" s="9">
-        <v>0</v>
+      <c r="AA14" s="9" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:27" ht="17" x14ac:dyDescent="0.2">
@@ -2134,19 +2137,19 @@
         <v>13</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="F15" s="8">
-        <v>0</v>
+        <v>98</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="G15" s="14" t="s">
         <v>97</v>
@@ -2208,8 +2211,8 @@
       <c r="Z15" s="8">
         <v>0</v>
       </c>
-      <c r="AA15" s="9">
-        <v>0</v>
+      <c r="AA15" s="9" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -2221,8 +2224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CA07F79-DEE4-4D4B-9BF2-455A880E0132}">
   <dimension ref="A1:AA15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="AA2" sqref="AA2:AA15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2315,19 +2318,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C2" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" s="7">
-        <v>0</v>
-      </c>
-      <c r="E2" s="7">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="F2" s="8">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -2390,7 +2393,7 @@
         <v>0</v>
       </c>
       <c r="AA2" s="9">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="17" x14ac:dyDescent="0.2">
@@ -2398,19 +2401,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="7">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="D3" s="7">
-        <v>0</v>
-      </c>
-      <c r="E3" s="7">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="F3" s="8">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -2473,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="AA3" s="9">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="17" x14ac:dyDescent="0.2">
@@ -2481,19 +2484,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="7">
-        <v>0</v>
+        <v>50</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
-      </c>
-      <c r="E4" s="7">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="F4" s="8">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G4" s="7">
         <v>0</v>
@@ -2556,7 +2559,7 @@
         <v>0</v>
       </c>
       <c r="AA4" s="9">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="17" x14ac:dyDescent="0.2">
@@ -2564,19 +2567,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="7">
-        <v>0</v>
+        <v>26</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
-      </c>
-      <c r="E5" s="7">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="F5" s="8">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G5" s="7">
         <v>0</v>
@@ -2639,7 +2642,7 @@
         <v>0</v>
       </c>
       <c r="AA5" s="9">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:27" ht="17" x14ac:dyDescent="0.2">
@@ -2647,19 +2650,19 @@
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="7">
-        <v>0</v>
+        <v>24</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="D6" s="7">
-        <v>0</v>
-      </c>
-      <c r="E6" s="7">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="F6" s="8">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G6" s="7">
         <v>0</v>
@@ -2722,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="AA6" s="9">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="17" x14ac:dyDescent="0.2">
@@ -2732,17 +2735,17 @@
       <c r="B7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="7">
-        <v>0</v>
+      <c r="C7" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="8">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G7" s="7">
         <v>0</v>
@@ -2805,7 +2808,7 @@
         <v>0</v>
       </c>
       <c r="AA7" s="9">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:27" ht="17" x14ac:dyDescent="0.2">
@@ -2813,19 +2816,19 @@
         <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="7">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
-      </c>
-      <c r="E8" s="7">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="F8" s="8">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G8" s="7">
         <v>0</v>
@@ -2888,7 +2891,7 @@
         <v>0</v>
       </c>
       <c r="AA8" s="9">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:27" ht="17" x14ac:dyDescent="0.2">
@@ -2896,19 +2899,19 @@
         <v>7</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="7">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="D9" s="7">
-        <v>0</v>
-      </c>
-      <c r="E9" s="7">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="F9" s="8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G9" s="7">
         <v>0</v>
@@ -2971,7 +2974,7 @@
         <v>0</v>
       </c>
       <c r="AA9" s="9">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="17" x14ac:dyDescent="0.2">
@@ -2979,19 +2982,19 @@
         <v>8</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
+      </c>
+      <c r="D10" s="14">
+        <v>8</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F10" s="8">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G10" s="7">
         <v>0</v>
@@ -3054,7 +3057,7 @@
         <v>0</v>
       </c>
       <c r="AA10" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:27" ht="17" x14ac:dyDescent="0.2">
@@ -3062,19 +3065,19 @@
         <v>9</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="7">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
-      </c>
-      <c r="E11" s="7">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="F11" s="8">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G11" s="7">
         <v>0</v>
@@ -3137,7 +3140,7 @@
         <v>0</v>
       </c>
       <c r="AA11" s="9">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:27" ht="17" x14ac:dyDescent="0.2">
@@ -3145,19 +3148,19 @@
         <v>10</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
+      </c>
+      <c r="D12" s="14">
+        <v>5</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F12" s="8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G12" s="7">
         <v>0</v>
@@ -3220,7 +3223,7 @@
         <v>0</v>
       </c>
       <c r="AA12" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:27" ht="17" x14ac:dyDescent="0.2">
@@ -3228,19 +3231,19 @@
         <v>11</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
+      </c>
+      <c r="D13" s="14">
+        <v>4</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F13" s="8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G13" s="7">
         <v>0</v>
@@ -3303,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="AA13" s="9">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="17" x14ac:dyDescent="0.2">
@@ -3311,19 +3314,19 @@
         <v>12</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
+      </c>
+      <c r="D14" s="14">
+        <v>3</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F14" s="8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G14" s="14" t="s">
         <v>97</v>
@@ -3386,7 +3389,7 @@
         <v>0</v>
       </c>
       <c r="AA14" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:27" ht="17" x14ac:dyDescent="0.2">
@@ -3394,19 +3397,19 @@
         <v>13</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="F15" s="8">
-        <v>0</v>
+        <v>98</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="G15" s="14" t="s">
         <v>97</v>
@@ -3468,8 +3471,8 @@
       <c r="Z15" s="8">
         <v>0</v>
       </c>
-      <c r="AA15" s="9">
-        <v>0</v>
+      <c r="AA15" s="9" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -6002,7 +6005,7 @@
   <dimension ref="A1:AA57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="B2" sqref="B2:AA57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6095,82 +6098,82 @@
         <v>1</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="C2" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" s="7">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E2" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" s="8">
-        <v>10</v>
-      </c>
-      <c r="G2" s="7">
-        <v>0</v>
-      </c>
-      <c r="H2" s="7">
-        <v>0</v>
-      </c>
-      <c r="I2" s="7">
-        <v>0</v>
-      </c>
-      <c r="J2" s="8">
-        <v>0</v>
-      </c>
-      <c r="K2" s="7">
-        <v>0</v>
-      </c>
-      <c r="L2" s="7">
-        <v>0</v>
-      </c>
-      <c r="M2" s="7">
-        <v>0</v>
-      </c>
-      <c r="N2" s="8">
-        <v>0</v>
-      </c>
-      <c r="O2" s="7">
-        <v>0</v>
-      </c>
-      <c r="P2" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="7">
-        <v>0</v>
-      </c>
-      <c r="R2" s="8">
-        <v>0</v>
-      </c>
-      <c r="S2" s="7">
-        <v>0</v>
-      </c>
-      <c r="T2" s="7">
-        <v>0</v>
-      </c>
-      <c r="U2" s="7">
-        <v>0</v>
-      </c>
-      <c r="V2" s="8">
-        <v>0</v>
-      </c>
-      <c r="W2" s="7">
-        <v>0</v>
-      </c>
-      <c r="X2" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="8">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="V2" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y2" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z2" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="AA2" s="9">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="17" x14ac:dyDescent="0.25">
@@ -6178,82 +6181,82 @@
         <v>2</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="C3" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="7">
-        <v>0</v>
-      </c>
-      <c r="E3" s="7">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="F3" s="8">
-        <v>0</v>
-      </c>
-      <c r="G3" s="7">
-        <v>0</v>
-      </c>
-      <c r="H3" s="7">
-        <v>0</v>
-      </c>
-      <c r="I3" s="7">
-        <v>0</v>
-      </c>
-      <c r="J3" s="8">
-        <v>0</v>
-      </c>
-      <c r="K3" s="7">
-        <v>0</v>
-      </c>
-      <c r="L3" s="7">
-        <v>0</v>
-      </c>
-      <c r="M3" s="7">
-        <v>0</v>
-      </c>
-      <c r="N3" s="8">
-        <v>0</v>
-      </c>
-      <c r="O3" s="7">
-        <v>0</v>
-      </c>
-      <c r="P3" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="7">
-        <v>0</v>
-      </c>
-      <c r="R3" s="8">
-        <v>0</v>
-      </c>
-      <c r="S3" s="7">
-        <v>0</v>
-      </c>
-      <c r="T3" s="7">
-        <v>0</v>
-      </c>
-      <c r="U3" s="7">
-        <v>0</v>
-      </c>
-      <c r="V3" s="8">
-        <v>0</v>
-      </c>
-      <c r="W3" s="7">
-        <v>0</v>
-      </c>
-      <c r="X3" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="8">
-        <v>0</v>
+        <v>26</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="R3" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="U3" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="V3" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="W3" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="X3" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y3" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z3" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="AA3" s="9">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="17" x14ac:dyDescent="0.25">
@@ -6261,82 +6264,82 @@
         <v>3</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" s="7">
-        <v>0</v>
+        <v>68</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
-      </c>
-      <c r="E4" s="7">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="F4" s="8">
-        <v>0</v>
-      </c>
-      <c r="G4" s="7">
-        <v>0</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="8">
-        <v>0</v>
-      </c>
-      <c r="K4" s="7">
-        <v>0</v>
-      </c>
-      <c r="L4" s="7">
-        <v>0</v>
-      </c>
-      <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="8">
-        <v>0</v>
-      </c>
-      <c r="O4" s="7">
-        <v>0</v>
-      </c>
-      <c r="P4" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="7">
-        <v>0</v>
-      </c>
-      <c r="R4" s="8">
-        <v>0</v>
-      </c>
-      <c r="S4" s="7">
-        <v>0</v>
-      </c>
-      <c r="T4" s="7">
-        <v>0</v>
-      </c>
-      <c r="U4" s="7">
-        <v>0</v>
-      </c>
-      <c r="V4" s="8">
-        <v>0</v>
-      </c>
-      <c r="W4" s="7">
-        <v>0</v>
-      </c>
-      <c r="X4" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="8">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="S4" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="T4" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="U4" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="V4" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="W4" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="X4" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y4" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z4" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="AA4" s="9">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="18" x14ac:dyDescent="0.25">
@@ -6344,82 +6347,82 @@
         <v>4</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="7">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
-      </c>
-      <c r="E5" s="7">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="F5" s="8">
-        <v>0</v>
-      </c>
-      <c r="G5" s="7">
-        <v>0</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="8">
-        <v>0</v>
-      </c>
-      <c r="K5" s="7">
-        <v>0</v>
-      </c>
-      <c r="L5" s="7">
-        <v>0</v>
-      </c>
-      <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="8">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="O5" s="13" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P5" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q5" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="R5" s="8">
-        <v>0</v>
-      </c>
-      <c r="S5" s="7">
-        <v>0</v>
-      </c>
-      <c r="T5" s="7">
-        <v>0</v>
-      </c>
-      <c r="U5" s="7">
-        <v>0</v>
-      </c>
-      <c r="V5" s="8">
-        <v>0</v>
-      </c>
-      <c r="W5" s="7">
-        <v>0</v>
-      </c>
-      <c r="X5" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="8">
-        <v>0</v>
+        <v>98</v>
+      </c>
+      <c r="R5" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="S5" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="T5" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="U5" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="V5" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="W5" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="X5" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y5" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z5" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="AA5" s="9">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:27" ht="17" x14ac:dyDescent="0.25">
@@ -6429,80 +6432,80 @@
       <c r="B6" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="7">
-        <v>0</v>
+      <c r="C6" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="D6" s="7">
-        <v>0</v>
-      </c>
-      <c r="E6" s="7">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="F6" s="8">
-        <v>0</v>
-      </c>
-      <c r="G6" s="7">
-        <v>0</v>
-      </c>
-      <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7">
-        <v>0</v>
-      </c>
-      <c r="J6" s="8">
-        <v>0</v>
-      </c>
-      <c r="K6" s="7">
-        <v>0</v>
-      </c>
-      <c r="L6" s="7">
-        <v>0</v>
-      </c>
-      <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="8">
-        <v>0</v>
-      </c>
-      <c r="O6" s="7">
-        <v>0</v>
-      </c>
-      <c r="P6" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="7">
-        <v>0</v>
-      </c>
-      <c r="R6" s="8">
-        <v>0</v>
-      </c>
-      <c r="S6" s="7">
-        <v>0</v>
-      </c>
-      <c r="T6" s="7">
-        <v>0</v>
-      </c>
-      <c r="U6" s="7">
-        <v>0</v>
-      </c>
-      <c r="V6" s="8">
-        <v>0</v>
-      </c>
-      <c r="W6" s="7">
-        <v>0</v>
-      </c>
-      <c r="X6" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="8">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="R6" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="S6" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="T6" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="U6" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="V6" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="W6" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="X6" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y6" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z6" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="AA6" s="9">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="17" x14ac:dyDescent="0.25">
@@ -6510,82 +6513,82 @@
         <v>6</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="C7" s="7">
-        <v>0</v>
+        <v>23</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
-      </c>
-      <c r="E7" s="7">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="F7" s="8">
-        <v>0</v>
-      </c>
-      <c r="G7" s="7">
-        <v>0</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="8">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="K7" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L7" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M7" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="N7" s="8">
-        <v>0</v>
-      </c>
-      <c r="O7" s="7">
-        <v>0</v>
-      </c>
-      <c r="P7" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="7">
-        <v>0</v>
-      </c>
-      <c r="R7" s="8">
-        <v>0</v>
-      </c>
-      <c r="S7" s="7">
-        <v>0</v>
-      </c>
-      <c r="T7" s="7">
-        <v>0</v>
-      </c>
-      <c r="U7" s="7">
-        <v>0</v>
-      </c>
-      <c r="V7" s="8">
-        <v>0</v>
-      </c>
-      <c r="W7" s="7">
-        <v>0</v>
-      </c>
-      <c r="X7" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="8">
-        <v>0</v>
+        <v>98</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="R7" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="S7" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="T7" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="U7" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="V7" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="W7" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="X7" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y7" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z7" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="AA7" s="9">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:27" ht="17" x14ac:dyDescent="0.25">
@@ -6593,82 +6596,82 @@
         <v>7</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" s="7">
-        <v>0</v>
+        <v>66</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
-      </c>
-      <c r="E8" s="7">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="F8" s="8">
-        <v>0</v>
-      </c>
-      <c r="G8" s="7">
-        <v>0</v>
-      </c>
-      <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0</v>
-      </c>
-      <c r="J8" s="8">
-        <v>0</v>
-      </c>
-      <c r="K8" s="7">
-        <v>0</v>
-      </c>
-      <c r="L8" s="7">
-        <v>0</v>
-      </c>
-      <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="8">
-        <v>0</v>
-      </c>
-      <c r="O8" s="7">
-        <v>0</v>
-      </c>
-      <c r="P8" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="7">
-        <v>0</v>
-      </c>
-      <c r="R8" s="8">
-        <v>0</v>
-      </c>
-      <c r="S8" s="7">
-        <v>0</v>
-      </c>
-      <c r="T8" s="7">
-        <v>0</v>
-      </c>
-      <c r="U8" s="7">
-        <v>0</v>
-      </c>
-      <c r="V8" s="8">
-        <v>0</v>
-      </c>
-      <c r="W8" s="7">
-        <v>0</v>
-      </c>
-      <c r="X8" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="8">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="R8" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="S8" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="T8" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="U8" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="V8" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="W8" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="X8" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y8" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z8" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="AA8" s="9">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:27" ht="17" x14ac:dyDescent="0.25">
@@ -6676,82 +6679,82 @@
         <v>8</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" s="19">
-        <v>0</v>
+        <v>26</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>98</v>
       </c>
       <c r="D9" s="19">
-        <v>0</v>
-      </c>
-      <c r="E9" s="19">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>98</v>
       </c>
       <c r="F9" s="20">
-        <v>0</v>
-      </c>
-      <c r="G9" s="19">
-        <v>0</v>
-      </c>
-      <c r="H9" s="19">
-        <v>0</v>
-      </c>
-      <c r="I9" s="19">
-        <v>0</v>
-      </c>
-      <c r="J9" s="20">
-        <v>0</v>
-      </c>
-      <c r="K9" s="19">
-        <v>0</v>
-      </c>
-      <c r="L9" s="19">
-        <v>0</v>
-      </c>
-      <c r="M9" s="19">
-        <v>0</v>
-      </c>
-      <c r="N9" s="20">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="J9" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="K9" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="L9" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="M9" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="N9" s="20" t="s">
+        <v>98</v>
       </c>
       <c r="O9" s="21" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P9" s="21" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q9" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="R9" s="20">
-        <v>0</v>
-      </c>
-      <c r="S9" s="19">
-        <v>0</v>
-      </c>
-      <c r="T9" s="19">
-        <v>0</v>
-      </c>
-      <c r="U9" s="19">
-        <v>0</v>
-      </c>
-      <c r="V9" s="20">
-        <v>0</v>
-      </c>
-      <c r="W9" s="19">
-        <v>0</v>
-      </c>
-      <c r="X9" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="19">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="20">
-        <v>0</v>
+        <v>98</v>
+      </c>
+      <c r="R9" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="S9" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="T9" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="U9" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="V9" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="W9" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="X9" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y9" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z9" s="20" t="s">
+        <v>98</v>
       </c>
       <c r="AA9" s="22">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="17" x14ac:dyDescent="0.25">
@@ -6759,82 +6762,82 @@
         <v>9</v>
       </c>
       <c r="B10" s="23" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
+      </c>
+      <c r="D10" s="14">
+        <v>14</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F10" s="8">
-        <v>0</v>
-      </c>
-      <c r="G10" s="7">
-        <v>0</v>
-      </c>
-      <c r="H10" s="7">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
-      <c r="J10" s="8">
-        <v>0</v>
-      </c>
-      <c r="K10" s="7">
-        <v>0</v>
-      </c>
-      <c r="L10" s="7">
-        <v>0</v>
-      </c>
-      <c r="M10" s="7">
-        <v>0</v>
-      </c>
-      <c r="N10" s="8">
-        <v>0</v>
-      </c>
-      <c r="O10" s="7">
-        <v>0</v>
-      </c>
-      <c r="P10" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="7">
-        <v>0</v>
-      </c>
-      <c r="R10" s="8">
-        <v>0</v>
-      </c>
-      <c r="S10" s="7">
-        <v>0</v>
-      </c>
-      <c r="T10" s="7">
-        <v>0</v>
-      </c>
-      <c r="U10" s="7">
-        <v>0</v>
-      </c>
-      <c r="V10" s="8">
-        <v>0</v>
-      </c>
-      <c r="W10" s="7">
-        <v>0</v>
-      </c>
-      <c r="X10" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="8">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="R10" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="S10" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="T10" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="U10" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="V10" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="W10" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="X10" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y10" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z10" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="AA10" s="9">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:27" ht="17" x14ac:dyDescent="0.25">
@@ -6842,82 +6845,82 @@
         <v>10</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" s="7">
-        <v>0</v>
+        <v>24</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
-      </c>
-      <c r="E11" s="7">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="F11" s="8">
-        <v>0</v>
-      </c>
-      <c r="G11" s="7">
-        <v>0</v>
-      </c>
-      <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
-      <c r="J11" s="8">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="K11" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L11" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M11" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="N11" s="8">
-        <v>0</v>
-      </c>
-      <c r="O11" s="7">
-        <v>0</v>
-      </c>
-      <c r="P11" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="7">
-        <v>0</v>
-      </c>
-      <c r="R11" s="8">
-        <v>0</v>
+        <v>98</v>
+      </c>
+      <c r="N11" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="R11" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="S11" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="T11" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="U11" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="V11" s="8">
-        <v>0</v>
-      </c>
-      <c r="W11" s="7">
-        <v>0</v>
-      </c>
-      <c r="X11" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="8">
-        <v>0</v>
+        <v>98</v>
+      </c>
+      <c r="V11" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="W11" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="X11" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y11" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z11" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="AA11" s="9">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:27" ht="17" x14ac:dyDescent="0.25">
@@ -6925,82 +6928,82 @@
         <v>11</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
+      </c>
+      <c r="D12" s="14">
+        <v>12</v>
+      </c>
+      <c r="E12" s="14">
+        <v>1</v>
       </c>
       <c r="F12" s="8">
-        <v>0</v>
-      </c>
-      <c r="G12" s="7">
-        <v>0</v>
-      </c>
-      <c r="H12" s="7">
-        <v>0</v>
-      </c>
-      <c r="I12" s="7">
-        <v>0</v>
-      </c>
-      <c r="J12" s="8">
-        <v>0</v>
-      </c>
-      <c r="K12" s="7">
-        <v>0</v>
-      </c>
-      <c r="L12" s="7">
-        <v>0</v>
-      </c>
-      <c r="M12" s="7">
-        <v>0</v>
-      </c>
-      <c r="N12" s="8">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="N12" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="O12" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P12" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q12" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="R12" s="8">
-        <v>0</v>
+        <v>98</v>
+      </c>
+      <c r="R12" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="S12" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="T12" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="U12" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="V12" s="8">
-        <v>0</v>
+        <v>98</v>
+      </c>
+      <c r="V12" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="W12" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="X12" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Y12" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z12" s="8">
-        <v>0</v>
+        <v>98</v>
+      </c>
+      <c r="Z12" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="AA12" s="9">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:27" ht="17" x14ac:dyDescent="0.25">
@@ -7008,82 +7011,82 @@
         <v>12</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
+      </c>
+      <c r="D13" s="14">
+        <v>12</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F13" s="8">
-        <v>0</v>
-      </c>
-      <c r="G13" s="7">
-        <v>0</v>
-      </c>
-      <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7">
-        <v>0</v>
-      </c>
-      <c r="J13" s="8">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="K13" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L13" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M13" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="N13" s="8">
-        <v>0</v>
+        <v>98</v>
+      </c>
+      <c r="N13" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="O13" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P13" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q13" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="R13" s="8">
-        <v>0</v>
+        <v>98</v>
+      </c>
+      <c r="R13" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="S13" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="T13" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="U13" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="V13" s="8">
-        <v>0</v>
-      </c>
-      <c r="W13" s="7">
-        <v>0</v>
-      </c>
-      <c r="X13" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="8">
-        <v>0</v>
+        <v>98</v>
+      </c>
+      <c r="V13" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="W13" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="X13" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y13" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z13" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="AA13" s="9">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="17" x14ac:dyDescent="0.25">
@@ -7091,82 +7094,82 @@
         <v>13</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>68</v>
+        <v>15</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
+      </c>
+      <c r="D14" s="14">
+        <v>12</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F14" s="8">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I14" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="J14" s="8">
-        <v>0</v>
+        <v>98</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="K14" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L14" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M14" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="N14" s="8">
-        <v>0</v>
-      </c>
-      <c r="O14" s="7">
-        <v>0</v>
-      </c>
-      <c r="P14" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="7">
-        <v>0</v>
-      </c>
-      <c r="R14" s="8">
-        <v>0</v>
+        <v>98</v>
+      </c>
+      <c r="N14" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="R14" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="S14" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="T14" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="U14" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="V14" s="8">
-        <v>0</v>
-      </c>
-      <c r="W14" s="7">
-        <v>0</v>
-      </c>
-      <c r="X14" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="8">
-        <v>0</v>
+        <v>98</v>
+      </c>
+      <c r="V14" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="W14" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="X14" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y14" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z14" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="AA14" s="9">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:27" ht="17" x14ac:dyDescent="0.25">
@@ -7174,82 +7177,82 @@
         <v>14</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
+      </c>
+      <c r="D15" s="14">
+        <v>10</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F15" s="8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="J15" s="8">
-        <v>0</v>
+        <v>98</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="K15" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L15" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M15" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="N15" s="8">
-        <v>0</v>
-      </c>
-      <c r="O15" s="7">
-        <v>0</v>
-      </c>
-      <c r="P15" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="7">
-        <v>0</v>
-      </c>
-      <c r="R15" s="8">
-        <v>0</v>
+        <v>98</v>
+      </c>
+      <c r="N15" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="R15" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="S15" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="T15" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="U15" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="V15" s="8">
-        <v>0</v>
-      </c>
-      <c r="W15" s="7">
-        <v>0</v>
-      </c>
-      <c r="X15" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="8">
-        <v>0</v>
+        <v>98</v>
+      </c>
+      <c r="V15" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="W15" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="X15" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y15" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z15" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="AA15" s="9">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:27" ht="17" x14ac:dyDescent="0.25">
@@ -7257,82 +7260,82 @@
         <v>15</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" s="7">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
-      </c>
-      <c r="E16" s="7">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="F16" s="8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I16" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="J16" s="8">
-        <v>0</v>
+        <v>98</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="K16" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L16" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M16" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="N16" s="8">
-        <v>0</v>
+        <v>98</v>
+      </c>
+      <c r="N16" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="O16" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P16" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q16" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="R16" s="8">
-        <v>0</v>
+        <v>98</v>
+      </c>
+      <c r="R16" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="S16" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="T16" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="U16" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="V16" s="8">
-        <v>0</v>
-      </c>
-      <c r="W16" s="7">
-        <v>0</v>
-      </c>
-      <c r="X16" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="8">
-        <v>0</v>
+        <v>98</v>
+      </c>
+      <c r="V16" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="W16" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="X16" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y16" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z16" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="AA16" s="9">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:27" ht="17" x14ac:dyDescent="0.25">
@@ -7340,82 +7343,82 @@
         <v>16</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="7">
-        <v>0</v>
+        <v>56</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
-      </c>
-      <c r="E17" s="7">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="F17" s="8">
-        <v>0</v>
-      </c>
-      <c r="G17" s="7">
-        <v>0</v>
-      </c>
-      <c r="H17" s="7">
-        <v>0</v>
-      </c>
-      <c r="I17" s="7">
-        <v>0</v>
-      </c>
-      <c r="J17" s="8">
-        <v>0</v>
-      </c>
-      <c r="K17" s="7">
-        <v>0</v>
-      </c>
-      <c r="L17" s="7">
-        <v>0</v>
-      </c>
-      <c r="M17" s="7">
-        <v>0</v>
-      </c>
-      <c r="N17" s="8">
-        <v>0</v>
-      </c>
-      <c r="O17" s="7">
-        <v>0</v>
-      </c>
-      <c r="P17" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="7">
-        <v>0</v>
-      </c>
-      <c r="R17" s="8">
-        <v>0</v>
-      </c>
-      <c r="S17" s="7">
-        <v>0</v>
-      </c>
-      <c r="T17" s="7">
-        <v>0</v>
-      </c>
-      <c r="U17" s="7">
-        <v>0</v>
-      </c>
-      <c r="V17" s="8">
-        <v>0</v>
-      </c>
-      <c r="W17" s="7">
-        <v>0</v>
-      </c>
-      <c r="X17" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="8">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="N17" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="R17" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="S17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="T17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="U17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="V17" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="W17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="X17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z17" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="AA17" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:27" ht="17" x14ac:dyDescent="0.25">
@@ -7423,82 +7426,82 @@
         <v>17</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="7">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="D18" s="7">
-        <v>0</v>
-      </c>
-      <c r="E18" s="7">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="F18" s="8">
-        <v>0</v>
-      </c>
-      <c r="G18" s="7">
-        <v>0</v>
-      </c>
-      <c r="H18" s="7">
-        <v>0</v>
-      </c>
-      <c r="I18" s="7">
-        <v>0</v>
-      </c>
-      <c r="J18" s="8">
-        <v>0</v>
-      </c>
-      <c r="K18" s="7">
-        <v>0</v>
-      </c>
-      <c r="L18" s="7">
-        <v>0</v>
-      </c>
-      <c r="M18" s="7">
-        <v>0</v>
-      </c>
-      <c r="N18" s="8">
-        <v>0</v>
-      </c>
-      <c r="O18" s="7">
-        <v>0</v>
-      </c>
-      <c r="P18" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="7">
-        <v>0</v>
-      </c>
-      <c r="R18" s="8">
-        <v>0</v>
-      </c>
-      <c r="S18" s="7">
-        <v>0</v>
-      </c>
-      <c r="T18" s="7">
-        <v>0</v>
-      </c>
-      <c r="U18" s="7">
-        <v>0</v>
-      </c>
-      <c r="V18" s="8">
-        <v>0</v>
-      </c>
-      <c r="W18" s="7">
-        <v>0</v>
-      </c>
-      <c r="X18" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="8">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M18" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="N18" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="R18" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="S18" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="T18" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="U18" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="V18" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="W18" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="X18" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y18" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z18" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="AA18" s="9">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:27" ht="17" x14ac:dyDescent="0.25">
@@ -7506,82 +7509,82 @@
         <v>18</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="7">
-        <v>0</v>
+        <v>69</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
-      </c>
-      <c r="E19" s="7">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="F19" s="8">
-        <v>0</v>
-      </c>
-      <c r="G19" s="7">
-        <v>0</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="8">
-        <v>0</v>
-      </c>
-      <c r="K19" s="7">
-        <v>0</v>
-      </c>
-      <c r="L19" s="7">
-        <v>0</v>
-      </c>
-      <c r="M19" s="7">
-        <v>0</v>
-      </c>
-      <c r="N19" s="8">
-        <v>0</v>
-      </c>
-      <c r="O19" s="7">
-        <v>0</v>
-      </c>
-      <c r="P19" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="7">
-        <v>0</v>
-      </c>
-      <c r="R19" s="8">
-        <v>0</v>
-      </c>
-      <c r="S19" s="7">
-        <v>0</v>
-      </c>
-      <c r="T19" s="7">
-        <v>0</v>
-      </c>
-      <c r="U19" s="7">
-        <v>0</v>
-      </c>
-      <c r="V19" s="8">
-        <v>0</v>
-      </c>
-      <c r="W19" s="7">
-        <v>0</v>
-      </c>
-      <c r="X19" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="8">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M19" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="N19" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="R19" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="S19" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="T19" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="U19" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="V19" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="W19" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="X19" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y19" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z19" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="AA19" s="9">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:27" ht="17" x14ac:dyDescent="0.25">
@@ -7589,82 +7592,82 @@
         <v>19</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="7">
-        <v>0</v>
+        <v>22</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
-      </c>
-      <c r="E20" s="7">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="F20" s="8">
-        <v>0</v>
-      </c>
-      <c r="G20" s="7">
-        <v>0</v>
-      </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="8">
-        <v>0</v>
-      </c>
-      <c r="K20" s="7">
-        <v>0</v>
-      </c>
-      <c r="L20" s="7">
-        <v>0</v>
-      </c>
-      <c r="M20" s="7">
-        <v>0</v>
-      </c>
-      <c r="N20" s="8">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M20" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="N20" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="O20" s="13" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P20" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q20" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="R20" s="8">
-        <v>0</v>
-      </c>
-      <c r="S20" s="7">
-        <v>0</v>
-      </c>
-      <c r="T20" s="7">
-        <v>0</v>
-      </c>
-      <c r="U20" s="7">
-        <v>0</v>
-      </c>
-      <c r="V20" s="8">
-        <v>0</v>
-      </c>
-      <c r="W20" s="7">
-        <v>0</v>
-      </c>
-      <c r="X20" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="8">
-        <v>0</v>
+        <v>98</v>
+      </c>
+      <c r="R20" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="S20" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="T20" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="U20" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="V20" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="W20" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="X20" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y20" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z20" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="AA20" s="9">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:27" ht="17" x14ac:dyDescent="0.25">
@@ -7672,82 +7675,82 @@
         <v>20</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="7">
-        <v>0</v>
+        <v>57</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="D21" s="7">
-        <v>0</v>
-      </c>
-      <c r="E21" s="7">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="F21" s="8">
-        <v>0</v>
-      </c>
-      <c r="G21" s="7">
-        <v>0</v>
-      </c>
-      <c r="H21" s="7">
-        <v>0</v>
-      </c>
-      <c r="I21" s="7">
-        <v>0</v>
-      </c>
-      <c r="J21" s="8">
-        <v>0</v>
-      </c>
-      <c r="K21" s="7">
-        <v>0</v>
-      </c>
-      <c r="L21" s="7">
-        <v>0</v>
-      </c>
-      <c r="M21" s="7">
-        <v>0</v>
-      </c>
-      <c r="N21" s="8">
-        <v>0</v>
-      </c>
-      <c r="O21" s="7">
-        <v>0</v>
-      </c>
-      <c r="P21" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="7">
-        <v>0</v>
-      </c>
-      <c r="R21" s="8">
-        <v>0</v>
-      </c>
-      <c r="S21" s="7">
-        <v>0</v>
-      </c>
-      <c r="T21" s="7">
-        <v>0</v>
-      </c>
-      <c r="U21" s="7">
-        <v>0</v>
-      </c>
-      <c r="V21" s="8">
-        <v>0</v>
-      </c>
-      <c r="W21" s="7">
-        <v>0</v>
-      </c>
-      <c r="X21" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="8">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="N21" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="R21" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="S21" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="T21" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="U21" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="V21" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="W21" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="X21" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y21" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z21" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="AA21" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:27" ht="17" x14ac:dyDescent="0.25">
@@ -7755,82 +7758,82 @@
         <v>21</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="24">
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>98</v>
       </c>
       <c r="D22" s="24">
-        <v>0</v>
-      </c>
-      <c r="E22" s="24">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>98</v>
       </c>
       <c r="F22" s="25">
-        <v>0</v>
-      </c>
-      <c r="G22" s="24">
-        <v>0</v>
-      </c>
-      <c r="H22" s="24">
-        <v>0</v>
-      </c>
-      <c r="I22" s="24">
-        <v>0</v>
-      </c>
-      <c r="J22" s="25">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="G22" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="H22" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="I22" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="J22" s="25" t="s">
+        <v>98</v>
       </c>
       <c r="K22" s="26" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L22" s="26" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M22" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="N22" s="25">
-        <v>0</v>
-      </c>
-      <c r="O22" s="24">
-        <v>0</v>
-      </c>
-      <c r="P22" s="24">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="24">
-        <v>0</v>
-      </c>
-      <c r="R22" s="25">
-        <v>0</v>
-      </c>
-      <c r="S22" s="24">
-        <v>0</v>
-      </c>
-      <c r="T22" s="24">
-        <v>0</v>
-      </c>
-      <c r="U22" s="24">
-        <v>0</v>
-      </c>
-      <c r="V22" s="25">
-        <v>0</v>
-      </c>
-      <c r="W22" s="24">
-        <v>0</v>
-      </c>
-      <c r="X22" s="24">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="24">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="25">
-        <v>0</v>
+        <v>98</v>
+      </c>
+      <c r="N22" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="O22" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="P22" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q22" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="R22" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="S22" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="T22" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="U22" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="V22" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="W22" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="X22" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y22" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z22" s="25" t="s">
+        <v>98</v>
       </c>
       <c r="AA22" s="27">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:27" ht="17" x14ac:dyDescent="0.25">
@@ -7838,82 +7841,82 @@
         <v>22</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="7">
-        <v>0</v>
+        <v>65</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="D23" s="7">
-        <v>0</v>
-      </c>
-      <c r="E23" s="7">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="F23" s="8">
-        <v>0</v>
-      </c>
-      <c r="G23" s="7">
-        <v>0</v>
-      </c>
-      <c r="H23" s="7">
-        <v>0</v>
-      </c>
-      <c r="I23" s="7">
-        <v>0</v>
-      </c>
-      <c r="J23" s="8">
-        <v>0</v>
-      </c>
-      <c r="K23" s="7">
-        <v>0</v>
-      </c>
-      <c r="L23" s="7">
-        <v>0</v>
-      </c>
-      <c r="M23" s="7">
-        <v>0</v>
-      </c>
-      <c r="N23" s="8">
-        <v>0</v>
-      </c>
-      <c r="O23" s="7">
-        <v>0</v>
-      </c>
-      <c r="P23" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="7">
-        <v>0</v>
-      </c>
-      <c r="R23" s="8">
-        <v>0</v>
-      </c>
-      <c r="S23" s="7">
-        <v>0</v>
-      </c>
-      <c r="T23" s="7">
-        <v>0</v>
-      </c>
-      <c r="U23" s="7">
-        <v>0</v>
-      </c>
-      <c r="V23" s="8">
-        <v>0</v>
-      </c>
-      <c r="W23" s="7">
-        <v>0</v>
-      </c>
-      <c r="X23" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="8">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M23" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="N23" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="R23" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="S23" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="T23" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="U23" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="V23" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="W23" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="X23" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y23" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z23" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="AA23" s="9">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:27" ht="17" x14ac:dyDescent="0.25">
@@ -7921,82 +7924,82 @@
         <v>23</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="19">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>98</v>
       </c>
       <c r="D24" s="19">
-        <v>0</v>
-      </c>
-      <c r="E24" s="19">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>98</v>
       </c>
       <c r="F24" s="20">
-        <v>0</v>
-      </c>
-      <c r="G24" s="19">
-        <v>0</v>
-      </c>
-      <c r="H24" s="19">
-        <v>0</v>
-      </c>
-      <c r="I24" s="19">
-        <v>0</v>
-      </c>
-      <c r="J24" s="20">
-        <v>0</v>
-      </c>
-      <c r="K24" s="19">
-        <v>0</v>
-      </c>
-      <c r="L24" s="19">
-        <v>0</v>
-      </c>
-      <c r="M24" s="19">
-        <v>0</v>
-      </c>
-      <c r="N24" s="20">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="H24" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="I24" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="J24" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="K24" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="L24" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="M24" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="N24" s="20" t="s">
+        <v>98</v>
       </c>
       <c r="O24" s="21" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P24" s="21" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q24" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="R24" s="20">
-        <v>0</v>
-      </c>
-      <c r="S24" s="19">
-        <v>0</v>
-      </c>
-      <c r="T24" s="19">
-        <v>0</v>
-      </c>
-      <c r="U24" s="19">
-        <v>0</v>
-      </c>
-      <c r="V24" s="20">
-        <v>0</v>
-      </c>
-      <c r="W24" s="19">
-        <v>0</v>
-      </c>
-      <c r="X24" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="19">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="20">
-        <v>0</v>
+        <v>98</v>
+      </c>
+      <c r="R24" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="S24" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="T24" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="U24" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="V24" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="W24" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="X24" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y24" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z24" s="20" t="s">
+        <v>98</v>
       </c>
       <c r="AA24" s="22">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:27" ht="17" x14ac:dyDescent="0.25">
@@ -8004,82 +8007,82 @@
         <v>24</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
+      </c>
+      <c r="D25" s="14">
+        <v>3</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F25" s="8">
-        <v>0</v>
-      </c>
-      <c r="G25" s="7">
-        <v>0</v>
-      </c>
-      <c r="H25" s="7">
-        <v>0</v>
-      </c>
-      <c r="I25" s="7">
-        <v>0</v>
-      </c>
-      <c r="J25" s="8">
-        <v>0</v>
-      </c>
-      <c r="K25" s="7">
-        <v>0</v>
-      </c>
-      <c r="L25" s="7">
-        <v>0</v>
-      </c>
-      <c r="M25" s="7">
-        <v>0</v>
-      </c>
-      <c r="N25" s="8">
-        <v>0</v>
-      </c>
-      <c r="O25" s="7">
-        <v>0</v>
-      </c>
-      <c r="P25" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="7">
-        <v>0</v>
-      </c>
-      <c r="R25" s="8">
-        <v>0</v>
-      </c>
-      <c r="S25" s="7">
-        <v>0</v>
-      </c>
-      <c r="T25" s="7">
-        <v>0</v>
-      </c>
-      <c r="U25" s="7">
-        <v>0</v>
-      </c>
-      <c r="V25" s="8">
-        <v>0</v>
-      </c>
-      <c r="W25" s="7">
-        <v>0</v>
-      </c>
-      <c r="X25" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y25" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z25" s="8">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M25" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="N25" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="R25" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="S25" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="T25" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="U25" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="V25" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="W25" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="X25" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y25" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z25" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="AA25" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:27" ht="17" x14ac:dyDescent="0.25">
@@ -8087,82 +8090,82 @@
         <v>25</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" s="7">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="D26" s="7">
-        <v>0</v>
-      </c>
-      <c r="E26" s="7">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="F26" s="8">
-        <v>0</v>
-      </c>
-      <c r="G26" s="7">
-        <v>0</v>
-      </c>
-      <c r="H26" s="7">
-        <v>0</v>
-      </c>
-      <c r="I26" s="7">
-        <v>0</v>
-      </c>
-      <c r="J26" s="8">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="K26" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L26" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M26" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="N26" s="8">
-        <v>0</v>
-      </c>
-      <c r="O26" s="7">
-        <v>0</v>
-      </c>
-      <c r="P26" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="7">
-        <v>0</v>
-      </c>
-      <c r="R26" s="8">
-        <v>0</v>
+        <v>98</v>
+      </c>
+      <c r="N26" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="R26" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="S26" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="T26" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="U26" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="V26" s="8">
-        <v>0</v>
-      </c>
-      <c r="W26" s="7">
-        <v>0</v>
-      </c>
-      <c r="X26" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y26" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z26" s="8">
-        <v>0</v>
+        <v>98</v>
+      </c>
+      <c r="V26" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="W26" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="X26" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y26" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z26" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="AA26" s="9">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:27" ht="17" x14ac:dyDescent="0.25">
@@ -8170,82 +8173,82 @@
         <v>26</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="F27" s="8">
-        <v>0</v>
-      </c>
-      <c r="G27" s="7">
-        <v>0</v>
-      </c>
-      <c r="H27" s="7">
-        <v>0</v>
-      </c>
-      <c r="I27" s="7">
-        <v>0</v>
-      </c>
-      <c r="J27" s="8">
-        <v>0</v>
-      </c>
-      <c r="K27" s="7">
-        <v>0</v>
-      </c>
-      <c r="L27" s="7">
-        <v>0</v>
-      </c>
-      <c r="M27" s="7">
-        <v>0</v>
-      </c>
-      <c r="N27" s="8">
-        <v>0</v>
+        <v>98</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H27" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M27" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="N27" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="O27" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P27" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q27" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="R27" s="8">
-        <v>0</v>
+        <v>98</v>
+      </c>
+      <c r="R27" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="S27" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="T27" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="U27" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="V27" s="8">
-        <v>0</v>
+        <v>98</v>
+      </c>
+      <c r="V27" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="W27" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="X27" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Y27" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z27" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA27" s="9">
-        <v>0</v>
+        <v>98</v>
+      </c>
+      <c r="Z27" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA27" s="9" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:27" ht="17" x14ac:dyDescent="0.25">
@@ -8253,82 +8256,82 @@
         <v>27</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="F28" s="8">
-        <v>0</v>
-      </c>
-      <c r="G28" s="7">
-        <v>0</v>
-      </c>
-      <c r="H28" s="7">
-        <v>0</v>
-      </c>
-      <c r="I28" s="7">
-        <v>0</v>
-      </c>
-      <c r="J28" s="8">
-        <v>0</v>
+        <v>98</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="K28" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L28" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M28" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="N28" s="8">
-        <v>0</v>
+        <v>98</v>
+      </c>
+      <c r="N28" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="O28" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P28" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q28" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="R28" s="8">
-        <v>0</v>
+        <v>98</v>
+      </c>
+      <c r="R28" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="S28" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="T28" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="U28" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="V28" s="8">
-        <v>0</v>
-      </c>
-      <c r="W28" s="7">
-        <v>0</v>
-      </c>
-      <c r="X28" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y28" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z28" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA28" s="9">
-        <v>0</v>
+        <v>98</v>
+      </c>
+      <c r="V28" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="W28" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="X28" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y28" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z28" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA28" s="9" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:27" ht="17" x14ac:dyDescent="0.25">
@@ -8336,82 +8339,82 @@
         <v>28</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="F29" s="8">
-        <v>0</v>
+        <v>98</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="G29" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H29" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I29" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="J29" s="8">
-        <v>0</v>
+        <v>98</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="K29" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L29" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M29" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="N29" s="8">
-        <v>0</v>
-      </c>
-      <c r="O29" s="7">
-        <v>0</v>
-      </c>
-      <c r="P29" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="7">
-        <v>0</v>
-      </c>
-      <c r="R29" s="8">
-        <v>0</v>
+        <v>98</v>
+      </c>
+      <c r="N29" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="R29" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="S29" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="T29" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="U29" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="V29" s="8">
-        <v>0</v>
-      </c>
-      <c r="W29" s="7">
-        <v>0</v>
-      </c>
-      <c r="X29" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y29" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z29" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA29" s="9">
-        <v>0</v>
+        <v>98</v>
+      </c>
+      <c r="V29" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="W29" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="X29" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y29" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z29" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA29" s="9" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:27" ht="17" x14ac:dyDescent="0.25">
@@ -8419,82 +8422,82 @@
         <v>29</v>
       </c>
       <c r="B30" s="17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="F30" s="8">
-        <v>0</v>
+        <v>98</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H30" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I30" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="J30" s="8">
-        <v>0</v>
+        <v>98</v>
+      </c>
+      <c r="J30" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="K30" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L30" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M30" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="N30" s="8">
-        <v>0</v>
-      </c>
-      <c r="O30" s="7">
-        <v>0</v>
-      </c>
-      <c r="P30" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="7">
-        <v>0</v>
-      </c>
-      <c r="R30" s="8">
-        <v>0</v>
+        <v>98</v>
+      </c>
+      <c r="N30" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="R30" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="S30" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="T30" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="U30" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="V30" s="8">
-        <v>0</v>
-      </c>
-      <c r="W30" s="7">
-        <v>0</v>
-      </c>
-      <c r="X30" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y30" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z30" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA30" s="9">
-        <v>0</v>
+        <v>98</v>
+      </c>
+      <c r="V30" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="W30" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="X30" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y30" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z30" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA30" s="9" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:27" ht="17" x14ac:dyDescent="0.25">
@@ -8502,82 +8505,82 @@
         <v>30</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C31" s="7">
-        <v>0</v>
-      </c>
-      <c r="D31" s="7">
-        <v>0</v>
-      </c>
-      <c r="E31" s="7">
-        <v>0</v>
-      </c>
-      <c r="F31" s="8">
-        <v>0</v>
+        <v>29</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="G31" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H31" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I31" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="J31" s="8">
-        <v>0</v>
+        <v>98</v>
+      </c>
+      <c r="J31" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="K31" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L31" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M31" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="N31" s="8">
-        <v>0</v>
+        <v>98</v>
+      </c>
+      <c r="N31" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="O31" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P31" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q31" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="R31" s="8">
-        <v>0</v>
+        <v>98</v>
+      </c>
+      <c r="R31" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="S31" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="T31" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="U31" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="V31" s="8">
-        <v>0</v>
-      </c>
-      <c r="W31" s="7">
-        <v>0</v>
-      </c>
-      <c r="X31" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y31" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z31" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA31" s="9">
-        <v>0</v>
+        <v>98</v>
+      </c>
+      <c r="V31" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="W31" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="X31" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y31" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z31" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA31" s="9" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:27" ht="17" x14ac:dyDescent="0.25">
@@ -8585,82 +8588,82 @@
         <v>31</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C32" s="7">
-        <v>0</v>
-      </c>
-      <c r="D32" s="7">
-        <v>0</v>
-      </c>
-      <c r="E32" s="7">
-        <v>0</v>
-      </c>
-      <c r="F32" s="8">
-        <v>0</v>
-      </c>
-      <c r="G32" s="7">
-        <v>0</v>
-      </c>
-      <c r="H32" s="7">
-        <v>0</v>
-      </c>
-      <c r="I32" s="7">
-        <v>0</v>
-      </c>
-      <c r="J32" s="8">
-        <v>0</v>
-      </c>
-      <c r="K32" s="7">
-        <v>0</v>
-      </c>
-      <c r="L32" s="7">
-        <v>0</v>
-      </c>
-      <c r="M32" s="7">
-        <v>0</v>
-      </c>
-      <c r="N32" s="8">
-        <v>0</v>
-      </c>
-      <c r="O32" s="7">
-        <v>0</v>
-      </c>
-      <c r="P32" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="7">
-        <v>0</v>
-      </c>
-      <c r="R32" s="8">
-        <v>0</v>
-      </c>
-      <c r="S32" s="7">
-        <v>0</v>
-      </c>
-      <c r="T32" s="7">
-        <v>0</v>
-      </c>
-      <c r="U32" s="7">
-        <v>0</v>
-      </c>
-      <c r="V32" s="8">
-        <v>0</v>
-      </c>
-      <c r="W32" s="7">
-        <v>0</v>
-      </c>
-      <c r="X32" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y32" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z32" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA32" s="9">
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="J32" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M32" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="N32" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="R32" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="S32" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="T32" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="U32" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="V32" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="W32" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="X32" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y32" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z32" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA32" s="9" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:27" ht="17" x14ac:dyDescent="0.25">
@@ -8668,82 +8671,82 @@
         <v>32</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C33" s="7">
-        <v>0</v>
-      </c>
-      <c r="D33" s="7">
-        <v>0</v>
-      </c>
-      <c r="E33" s="7">
-        <v>0</v>
-      </c>
-      <c r="F33" s="8">
-        <v>0</v>
-      </c>
-      <c r="G33" s="7">
-        <v>0</v>
-      </c>
-      <c r="H33" s="7">
-        <v>0</v>
-      </c>
-      <c r="I33" s="7">
-        <v>0</v>
-      </c>
-      <c r="J33" s="8">
-        <v>0</v>
-      </c>
-      <c r="K33" s="7">
-        <v>0</v>
-      </c>
-      <c r="L33" s="7">
-        <v>0</v>
-      </c>
-      <c r="M33" s="7">
-        <v>0</v>
-      </c>
-      <c r="N33" s="8">
-        <v>0</v>
-      </c>
-      <c r="O33" s="7">
-        <v>0</v>
-      </c>
-      <c r="P33" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="7">
-        <v>0</v>
-      </c>
-      <c r="R33" s="8">
-        <v>0</v>
-      </c>
-      <c r="S33" s="7">
-        <v>0</v>
-      </c>
-      <c r="T33" s="7">
-        <v>0</v>
-      </c>
-      <c r="U33" s="7">
-        <v>0</v>
-      </c>
-      <c r="V33" s="8">
-        <v>0</v>
-      </c>
-      <c r="W33" s="7">
-        <v>0</v>
-      </c>
-      <c r="X33" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y33" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z33" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA33" s="9">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="J33" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M33" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="N33" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="R33" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="S33" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="T33" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="U33" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="V33" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="W33" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="X33" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y33" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z33" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA33" s="9" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:27" ht="17" x14ac:dyDescent="0.25">
@@ -8751,82 +8754,82 @@
         <v>33</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C34" s="7">
-        <v>0</v>
-      </c>
-      <c r="D34" s="7">
-        <v>0</v>
-      </c>
-      <c r="E34" s="7">
-        <v>0</v>
-      </c>
-      <c r="F34" s="8">
-        <v>0</v>
-      </c>
-      <c r="G34" s="7">
-        <v>0</v>
-      </c>
-      <c r="H34" s="7">
-        <v>0</v>
-      </c>
-      <c r="I34" s="7">
-        <v>0</v>
-      </c>
-      <c r="J34" s="8">
-        <v>0</v>
-      </c>
-      <c r="K34" s="7">
-        <v>0</v>
-      </c>
-      <c r="L34" s="7">
-        <v>0</v>
-      </c>
-      <c r="M34" s="7">
-        <v>0</v>
-      </c>
-      <c r="N34" s="8">
-        <v>0</v>
-      </c>
-      <c r="O34" s="7">
-        <v>0</v>
-      </c>
-      <c r="P34" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="7">
-        <v>0</v>
-      </c>
-      <c r="R34" s="8">
-        <v>0</v>
-      </c>
-      <c r="S34" s="7">
-        <v>0</v>
-      </c>
-      <c r="T34" s="7">
-        <v>0</v>
-      </c>
-      <c r="U34" s="7">
-        <v>0</v>
-      </c>
-      <c r="V34" s="8">
-        <v>0</v>
-      </c>
-      <c r="W34" s="7">
-        <v>0</v>
-      </c>
-      <c r="X34" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y34" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z34" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA34" s="9">
-        <v>0</v>
+        <v>32</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H34" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="J34" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M34" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="N34" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="R34" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="S34" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="T34" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="U34" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="V34" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="W34" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="X34" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y34" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z34" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA34" s="9" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:27" ht="17" x14ac:dyDescent="0.25">
@@ -8834,82 +8837,82 @@
         <v>34</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C35" s="7">
-        <v>0</v>
-      </c>
-      <c r="D35" s="7">
-        <v>0</v>
-      </c>
-      <c r="E35" s="7">
-        <v>0</v>
-      </c>
-      <c r="F35" s="8">
-        <v>0</v>
-      </c>
-      <c r="G35" s="7">
-        <v>0</v>
-      </c>
-      <c r="H35" s="7">
-        <v>0</v>
-      </c>
-      <c r="I35" s="7">
-        <v>0</v>
-      </c>
-      <c r="J35" s="8">
-        <v>0</v>
-      </c>
-      <c r="K35" s="7">
-        <v>0</v>
-      </c>
-      <c r="L35" s="7">
-        <v>0</v>
-      </c>
-      <c r="M35" s="7">
-        <v>0</v>
-      </c>
-      <c r="N35" s="8">
-        <v>0</v>
-      </c>
-      <c r="O35" s="7">
-        <v>0</v>
-      </c>
-      <c r="P35" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="7">
-        <v>0</v>
-      </c>
-      <c r="R35" s="8">
-        <v>0</v>
-      </c>
-      <c r="S35" s="7">
-        <v>0</v>
-      </c>
-      <c r="T35" s="7">
-        <v>0</v>
-      </c>
-      <c r="U35" s="7">
-        <v>0</v>
-      </c>
-      <c r="V35" s="8">
-        <v>0</v>
-      </c>
-      <c r="W35" s="7">
-        <v>0</v>
-      </c>
-      <c r="X35" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y35" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z35" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA35" s="9">
-        <v>0</v>
+        <v>33</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="J35" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M35" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="N35" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="R35" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="S35" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="T35" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="U35" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="V35" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="W35" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="X35" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y35" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z35" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA35" s="9" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="36" spans="1:27" ht="17" x14ac:dyDescent="0.25">
@@ -8917,82 +8920,82 @@
         <v>35</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C36" s="7">
-        <v>0</v>
-      </c>
-      <c r="D36" s="7">
-        <v>0</v>
-      </c>
-      <c r="E36" s="7">
-        <v>0</v>
-      </c>
-      <c r="F36" s="8">
-        <v>0</v>
-      </c>
-      <c r="G36" s="7">
-        <v>0</v>
-      </c>
-      <c r="H36" s="7">
-        <v>0</v>
-      </c>
-      <c r="I36" s="7">
-        <v>0</v>
-      </c>
-      <c r="J36" s="8">
-        <v>0</v>
-      </c>
-      <c r="K36" s="7">
-        <v>0</v>
-      </c>
-      <c r="L36" s="7">
-        <v>0</v>
-      </c>
-      <c r="M36" s="7">
-        <v>0</v>
-      </c>
-      <c r="N36" s="8">
-        <v>0</v>
-      </c>
-      <c r="O36" s="7">
-        <v>0</v>
-      </c>
-      <c r="P36" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="7">
-        <v>0</v>
-      </c>
-      <c r="R36" s="8">
-        <v>0</v>
-      </c>
-      <c r="S36" s="7">
-        <v>0</v>
-      </c>
-      <c r="T36" s="7">
-        <v>0</v>
-      </c>
-      <c r="U36" s="7">
-        <v>0</v>
-      </c>
-      <c r="V36" s="8">
-        <v>0</v>
-      </c>
-      <c r="W36" s="7">
-        <v>0</v>
-      </c>
-      <c r="X36" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y36" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z36" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA36" s="9">
-        <v>0</v>
+        <v>34</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="J36" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L36" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M36" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="N36" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="O36" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q36" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="R36" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="S36" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="T36" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="U36" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="V36" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="W36" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="X36" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y36" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z36" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA36" s="9" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="37" spans="1:27" ht="18" x14ac:dyDescent="0.25">
@@ -9000,82 +9003,82 @@
         <v>36</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C37" s="7">
-        <v>0</v>
-      </c>
-      <c r="D37" s="7">
-        <v>0</v>
-      </c>
-      <c r="E37" s="7">
-        <v>0</v>
-      </c>
-      <c r="F37" s="8">
-        <v>0</v>
-      </c>
-      <c r="G37" s="7">
-        <v>0</v>
-      </c>
-      <c r="H37" s="7">
-        <v>0</v>
-      </c>
-      <c r="I37" s="7">
-        <v>0</v>
-      </c>
-      <c r="J37" s="8">
-        <v>0</v>
-      </c>
-      <c r="K37" s="7">
-        <v>0</v>
-      </c>
-      <c r="L37" s="7">
-        <v>0</v>
-      </c>
-      <c r="M37" s="7">
-        <v>0</v>
-      </c>
-      <c r="N37" s="8">
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="J37" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L37" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M37" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="N37" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="O37" s="13" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P37" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q37" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="R37" s="8">
-        <v>0</v>
-      </c>
-      <c r="S37" s="7">
-        <v>0</v>
-      </c>
-      <c r="T37" s="7">
-        <v>0</v>
-      </c>
-      <c r="U37" s="7">
-        <v>0</v>
-      </c>
-      <c r="V37" s="8">
-        <v>0</v>
-      </c>
-      <c r="W37" s="7">
-        <v>0</v>
-      </c>
-      <c r="X37" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y37" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z37" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA37" s="9">
-        <v>0</v>
+        <v>98</v>
+      </c>
+      <c r="R37" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="S37" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="T37" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="U37" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="V37" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="W37" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="X37" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y37" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z37" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA37" s="9" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="38" spans="1:27" ht="17" x14ac:dyDescent="0.25">
@@ -9083,82 +9086,82 @@
         <v>37</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C38" s="7">
-        <v>0</v>
-      </c>
-      <c r="D38" s="7">
-        <v>0</v>
-      </c>
-      <c r="E38" s="7">
-        <v>0</v>
-      </c>
-      <c r="F38" s="8">
-        <v>0</v>
-      </c>
-      <c r="G38" s="7">
-        <v>0</v>
-      </c>
-      <c r="H38" s="7">
-        <v>0</v>
-      </c>
-      <c r="I38" s="7">
-        <v>0</v>
-      </c>
-      <c r="J38" s="8">
-        <v>0</v>
-      </c>
-      <c r="K38" s="7">
-        <v>0</v>
-      </c>
-      <c r="L38" s="7">
-        <v>0</v>
-      </c>
-      <c r="M38" s="7">
-        <v>0</v>
-      </c>
-      <c r="N38" s="8">
-        <v>0</v>
-      </c>
-      <c r="O38" s="7">
-        <v>0</v>
-      </c>
-      <c r="P38" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="7">
-        <v>0</v>
-      </c>
-      <c r="R38" s="8">
-        <v>0</v>
-      </c>
-      <c r="S38" s="7">
-        <v>0</v>
-      </c>
-      <c r="T38" s="7">
-        <v>0</v>
-      </c>
-      <c r="U38" s="7">
-        <v>0</v>
-      </c>
-      <c r="V38" s="8">
-        <v>0</v>
-      </c>
-      <c r="W38" s="7">
-        <v>0</v>
-      </c>
-      <c r="X38" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y38" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z38" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA38" s="9">
-        <v>0</v>
+        <v>36</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="J38" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M38" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="N38" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q38" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="R38" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="S38" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="T38" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="U38" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="V38" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="W38" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="X38" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y38" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z38" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA38" s="9" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="39" spans="1:27" ht="17" x14ac:dyDescent="0.25">
@@ -9166,82 +9169,82 @@
         <v>38</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C39" s="7">
-        <v>0</v>
-      </c>
-      <c r="D39" s="7">
-        <v>0</v>
-      </c>
-      <c r="E39" s="7">
-        <v>0</v>
-      </c>
-      <c r="F39" s="8">
-        <v>0</v>
-      </c>
-      <c r="G39" s="7">
-        <v>0</v>
-      </c>
-      <c r="H39" s="7">
-        <v>0</v>
-      </c>
-      <c r="I39" s="7">
-        <v>0</v>
-      </c>
-      <c r="J39" s="8">
-        <v>0</v>
+        <v>37</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="J39" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="K39" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L39" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M39" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="N39" s="8">
-        <v>0</v>
-      </c>
-      <c r="O39" s="7">
-        <v>0</v>
-      </c>
-      <c r="P39" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="7">
-        <v>0</v>
-      </c>
-      <c r="R39" s="8">
-        <v>0</v>
-      </c>
-      <c r="S39" s="7">
-        <v>0</v>
-      </c>
-      <c r="T39" s="7">
-        <v>0</v>
-      </c>
-      <c r="U39" s="7">
-        <v>0</v>
-      </c>
-      <c r="V39" s="8">
-        <v>0</v>
-      </c>
-      <c r="W39" s="7">
-        <v>0</v>
-      </c>
-      <c r="X39" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y39" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z39" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA39" s="9">
-        <v>0</v>
+        <v>98</v>
+      </c>
+      <c r="N39" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q39" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="R39" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="S39" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="T39" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="U39" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="V39" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="W39" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="X39" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y39" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z39" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA39" s="9" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="40" spans="1:27" ht="17" x14ac:dyDescent="0.25">
@@ -9249,82 +9252,82 @@
         <v>39</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C40" s="7">
-        <v>0</v>
-      </c>
-      <c r="D40" s="7">
-        <v>0</v>
-      </c>
-      <c r="E40" s="7">
-        <v>0</v>
-      </c>
-      <c r="F40" s="8">
-        <v>0</v>
-      </c>
-      <c r="G40" s="7">
-        <v>0</v>
-      </c>
-      <c r="H40" s="7">
-        <v>0</v>
-      </c>
-      <c r="I40" s="7">
-        <v>0</v>
-      </c>
-      <c r="J40" s="8">
-        <v>0</v>
-      </c>
-      <c r="K40" s="7">
-        <v>0</v>
-      </c>
-      <c r="L40" s="7">
-        <v>0</v>
-      </c>
-      <c r="M40" s="7">
-        <v>0</v>
-      </c>
-      <c r="N40" s="8">
-        <v>0</v>
-      </c>
-      <c r="O40" s="7">
-        <v>0</v>
-      </c>
-      <c r="P40" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="7">
-        <v>0</v>
-      </c>
-      <c r="R40" s="8">
-        <v>0</v>
-      </c>
-      <c r="S40" s="7">
-        <v>0</v>
-      </c>
-      <c r="T40" s="7">
-        <v>0</v>
-      </c>
-      <c r="U40" s="7">
-        <v>0</v>
-      </c>
-      <c r="V40" s="8">
-        <v>0</v>
-      </c>
-      <c r="W40" s="7">
-        <v>0</v>
-      </c>
-      <c r="X40" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y40" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z40" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA40" s="9">
-        <v>0</v>
+        <v>38</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="J40" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M40" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="N40" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q40" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="R40" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="S40" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="T40" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="U40" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="V40" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="W40" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="X40" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y40" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z40" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA40" s="9" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="41" spans="1:27" ht="17" x14ac:dyDescent="0.25">
@@ -9332,82 +9335,82 @@
         <v>40</v>
       </c>
       <c r="B41" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C41" s="19">
-        <v>0</v>
-      </c>
-      <c r="D41" s="19">
-        <v>0</v>
-      </c>
-      <c r="E41" s="19">
-        <v>0</v>
-      </c>
-      <c r="F41" s="20">
-        <v>0</v>
-      </c>
-      <c r="G41" s="19">
-        <v>0</v>
-      </c>
-      <c r="H41" s="19">
-        <v>0</v>
-      </c>
-      <c r="I41" s="19">
-        <v>0</v>
-      </c>
-      <c r="J41" s="20">
-        <v>0</v>
-      </c>
-      <c r="K41" s="19">
-        <v>0</v>
-      </c>
-      <c r="L41" s="19">
-        <v>0</v>
-      </c>
-      <c r="M41" s="19">
-        <v>0</v>
-      </c>
-      <c r="N41" s="20">
-        <v>0</v>
+        <v>39</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="D41" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="E41" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="F41" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="G41" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="H41" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="I41" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="J41" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="K41" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="L41" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="M41" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="N41" s="20" t="s">
+        <v>98</v>
       </c>
       <c r="O41" s="21" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P41" s="21" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q41" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="R41" s="20">
-        <v>0</v>
-      </c>
-      <c r="S41" s="19">
-        <v>0</v>
-      </c>
-      <c r="T41" s="19">
-        <v>0</v>
-      </c>
-      <c r="U41" s="19">
-        <v>0</v>
-      </c>
-      <c r="V41" s="20">
-        <v>0</v>
-      </c>
-      <c r="W41" s="19">
-        <v>0</v>
-      </c>
-      <c r="X41" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y41" s="19">
-        <v>0</v>
-      </c>
-      <c r="Z41" s="20">
-        <v>0</v>
-      </c>
-      <c r="AA41" s="22">
-        <v>0</v>
+        <v>98</v>
+      </c>
+      <c r="R41" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="S41" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="T41" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="U41" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="V41" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="W41" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="X41" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y41" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z41" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA41" s="22" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="42" spans="1:27" ht="17" x14ac:dyDescent="0.25">
@@ -9415,82 +9418,82 @@
         <v>41</v>
       </c>
       <c r="B42" s="23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="F42" s="8">
-        <v>0</v>
-      </c>
-      <c r="G42" s="7">
-        <v>0</v>
-      </c>
-      <c r="H42" s="7">
-        <v>0</v>
-      </c>
-      <c r="I42" s="7">
-        <v>0</v>
-      </c>
-      <c r="J42" s="8">
-        <v>0</v>
-      </c>
-      <c r="K42" s="7">
-        <v>0</v>
-      </c>
-      <c r="L42" s="7">
-        <v>0</v>
-      </c>
-      <c r="M42" s="7">
-        <v>0</v>
-      </c>
-      <c r="N42" s="8">
-        <v>0</v>
-      </c>
-      <c r="O42" s="7">
-        <v>0</v>
-      </c>
-      <c r="P42" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="7">
-        <v>0</v>
-      </c>
-      <c r="R42" s="8">
-        <v>0</v>
-      </c>
-      <c r="S42" s="7">
-        <v>0</v>
-      </c>
-      <c r="T42" s="7">
-        <v>0</v>
-      </c>
-      <c r="U42" s="7">
-        <v>0</v>
-      </c>
-      <c r="V42" s="8">
-        <v>0</v>
-      </c>
-      <c r="W42" s="7">
-        <v>0</v>
-      </c>
-      <c r="X42" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y42" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z42" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA42" s="9">
-        <v>0</v>
+        <v>98</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="I42" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="J42" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L42" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M42" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="N42" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="O42" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P42" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q42" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="R42" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="S42" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="T42" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="U42" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="V42" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="W42" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="X42" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y42" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z42" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA42" s="9" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="43" spans="1:27" ht="17" x14ac:dyDescent="0.25">
@@ -9498,82 +9501,82 @@
         <v>42</v>
       </c>
       <c r="B43" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="C43" s="7">
-        <v>0</v>
-      </c>
-      <c r="D43" s="7">
-        <v>0</v>
-      </c>
-      <c r="E43" s="7">
-        <v>0</v>
-      </c>
-      <c r="F43" s="8">
-        <v>0</v>
-      </c>
-      <c r="G43" s="7">
-        <v>0</v>
-      </c>
-      <c r="H43" s="7">
-        <v>0</v>
-      </c>
-      <c r="I43" s="7">
-        <v>0</v>
-      </c>
-      <c r="J43" s="8">
-        <v>0</v>
+        <v>41</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="J43" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="K43" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L43" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M43" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="N43" s="8">
-        <v>0</v>
-      </c>
-      <c r="O43" s="7">
-        <v>0</v>
-      </c>
-      <c r="P43" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="7">
-        <v>0</v>
-      </c>
-      <c r="R43" s="8">
-        <v>0</v>
+        <v>98</v>
+      </c>
+      <c r="N43" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="O43" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q43" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="R43" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="S43" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="T43" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="U43" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="V43" s="8">
-        <v>0</v>
-      </c>
-      <c r="W43" s="7">
-        <v>0</v>
-      </c>
-      <c r="X43" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y43" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z43" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA43" s="9">
-        <v>0</v>
+        <v>98</v>
+      </c>
+      <c r="V43" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="W43" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="X43" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y43" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z43" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA43" s="9" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="44" spans="1:27" ht="17" x14ac:dyDescent="0.25">
@@ -9581,82 +9584,82 @@
         <v>43</v>
       </c>
       <c r="B44" s="17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E44" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="F44" s="8">
-        <v>0</v>
-      </c>
-      <c r="G44" s="7">
-        <v>0</v>
-      </c>
-      <c r="H44" s="7">
-        <v>0</v>
-      </c>
-      <c r="I44" s="7">
-        <v>0</v>
-      </c>
-      <c r="J44" s="8">
-        <v>0</v>
-      </c>
-      <c r="K44" s="7">
-        <v>0</v>
-      </c>
-      <c r="L44" s="7">
-        <v>0</v>
-      </c>
-      <c r="M44" s="7">
-        <v>0</v>
-      </c>
-      <c r="N44" s="8">
-        <v>0</v>
+        <v>98</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="I44" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="J44" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L44" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M44" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="N44" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="O44" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P44" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q44" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="R44" s="8">
-        <v>0</v>
+        <v>98</v>
+      </c>
+      <c r="R44" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="S44" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="T44" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="U44" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="V44" s="8">
-        <v>0</v>
+        <v>98</v>
+      </c>
+      <c r="V44" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="W44" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="X44" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Y44" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z44" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA44" s="9">
-        <v>0</v>
+        <v>98</v>
+      </c>
+      <c r="Z44" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA44" s="9" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="45" spans="1:27" ht="17" x14ac:dyDescent="0.25">
@@ -9667,79 +9670,79 @@
         <v>43</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E45" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="F45" s="8">
-        <v>0</v>
-      </c>
-      <c r="G45" s="7">
-        <v>0</v>
-      </c>
-      <c r="H45" s="7">
-        <v>0</v>
-      </c>
-      <c r="I45" s="7">
-        <v>0</v>
-      </c>
-      <c r="J45" s="8">
-        <v>0</v>
+        <v>98</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="J45" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="K45" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L45" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M45" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="N45" s="8">
-        <v>0</v>
+        <v>98</v>
+      </c>
+      <c r="N45" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="O45" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P45" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q45" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="R45" s="8">
-        <v>0</v>
+        <v>98</v>
+      </c>
+      <c r="R45" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="S45" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="T45" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="U45" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="V45" s="8">
-        <v>0</v>
-      </c>
-      <c r="W45" s="7">
-        <v>0</v>
-      </c>
-      <c r="X45" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y45" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z45" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA45" s="9">
-        <v>0</v>
+        <v>98</v>
+      </c>
+      <c r="V45" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="W45" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="X45" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y45" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z45" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA45" s="9" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="46" spans="1:27" ht="17" x14ac:dyDescent="0.25">
@@ -9750,79 +9753,79 @@
         <v>44</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="F46" s="8">
-        <v>0</v>
+        <v>98</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="G46" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H46" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I46" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="J46" s="8">
-        <v>0</v>
+        <v>98</v>
+      </c>
+      <c r="J46" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="K46" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L46" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M46" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="N46" s="8">
-        <v>0</v>
-      </c>
-      <c r="O46" s="7">
-        <v>0</v>
-      </c>
-      <c r="P46" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="7">
-        <v>0</v>
-      </c>
-      <c r="R46" s="8">
-        <v>0</v>
+        <v>98</v>
+      </c>
+      <c r="N46" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="O46" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q46" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="R46" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="S46" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="T46" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="U46" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="V46" s="8">
-        <v>0</v>
-      </c>
-      <c r="W46" s="7">
-        <v>0</v>
-      </c>
-      <c r="X46" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y46" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z46" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA46" s="9">
-        <v>0</v>
+        <v>98</v>
+      </c>
+      <c r="V46" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="W46" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="X46" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y46" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z46" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA46" s="9" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="47" spans="1:27" ht="17" x14ac:dyDescent="0.25">
@@ -9833,79 +9836,79 @@
         <v>45</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E47" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="F47" s="8">
-        <v>0</v>
+        <v>98</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="G47" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H47" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I47" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="J47" s="8">
-        <v>0</v>
+        <v>98</v>
+      </c>
+      <c r="J47" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="K47" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L47" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M47" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="N47" s="8">
-        <v>0</v>
-      </c>
-      <c r="O47" s="7">
-        <v>0</v>
-      </c>
-      <c r="P47" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="7">
-        <v>0</v>
-      </c>
-      <c r="R47" s="8">
-        <v>0</v>
+        <v>98</v>
+      </c>
+      <c r="N47" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="O47" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q47" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="R47" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="S47" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="T47" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="U47" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="V47" s="8">
-        <v>0</v>
-      </c>
-      <c r="W47" s="7">
-        <v>0</v>
-      </c>
-      <c r="X47" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y47" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z47" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA47" s="9">
-        <v>0</v>
+        <v>98</v>
+      </c>
+      <c r="V47" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="W47" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="X47" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y47" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z47" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA47" s="9" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="48" spans="1:27" ht="17" x14ac:dyDescent="0.25">
@@ -9915,80 +9918,80 @@
       <c r="B48" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="C48" s="7">
-        <v>0</v>
-      </c>
-      <c r="D48" s="7">
-        <v>0</v>
-      </c>
-      <c r="E48" s="7">
-        <v>0</v>
-      </c>
-      <c r="F48" s="8">
-        <v>0</v>
+      <c r="C48" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="G48" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H48" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I48" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="J48" s="8">
-        <v>0</v>
+        <v>98</v>
+      </c>
+      <c r="J48" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="K48" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L48" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M48" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="N48" s="8">
-        <v>0</v>
+        <v>98</v>
+      </c>
+      <c r="N48" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="O48" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P48" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q48" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="R48" s="8">
-        <v>0</v>
+        <v>98</v>
+      </c>
+      <c r="R48" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="S48" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="T48" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="U48" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="V48" s="8">
-        <v>0</v>
-      </c>
-      <c r="W48" s="7">
-        <v>0</v>
-      </c>
-      <c r="X48" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y48" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z48" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA48" s="9">
-        <v>0</v>
+        <v>98</v>
+      </c>
+      <c r="V48" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="W48" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="X48" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y48" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z48" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA48" s="9" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="49" spans="1:27" ht="17" x14ac:dyDescent="0.25">
@@ -9998,80 +10001,80 @@
       <c r="B49" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="C49" s="7">
-        <v>0</v>
-      </c>
-      <c r="D49" s="7">
-        <v>0</v>
-      </c>
-      <c r="E49" s="7">
-        <v>0</v>
-      </c>
-      <c r="F49" s="8">
-        <v>0</v>
-      </c>
-      <c r="G49" s="7">
-        <v>0</v>
-      </c>
-      <c r="H49" s="7">
-        <v>0</v>
-      </c>
-      <c r="I49" s="7">
-        <v>0</v>
-      </c>
-      <c r="J49" s="8">
-        <v>0</v>
-      </c>
-      <c r="K49" s="7">
-        <v>0</v>
-      </c>
-      <c r="L49" s="7">
-        <v>0</v>
-      </c>
-      <c r="M49" s="7">
-        <v>0</v>
-      </c>
-      <c r="N49" s="8">
-        <v>0</v>
-      </c>
-      <c r="O49" s="7">
-        <v>0</v>
-      </c>
-      <c r="P49" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="7">
-        <v>0</v>
-      </c>
-      <c r="R49" s="8">
-        <v>0</v>
-      </c>
-      <c r="S49" s="7">
-        <v>0</v>
-      </c>
-      <c r="T49" s="7">
-        <v>0</v>
-      </c>
-      <c r="U49" s="7">
-        <v>0</v>
-      </c>
-      <c r="V49" s="8">
-        <v>0</v>
-      </c>
-      <c r="W49" s="7">
-        <v>0</v>
-      </c>
-      <c r="X49" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y49" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z49" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA49" s="9">
-        <v>0</v>
+      <c r="C49" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="I49" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="J49" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L49" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M49" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="N49" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="O49" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q49" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="R49" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="S49" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="T49" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="U49" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="V49" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="W49" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="X49" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y49" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z49" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA49" s="9" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="50" spans="1:27" ht="17" x14ac:dyDescent="0.25">
@@ -10081,80 +10084,80 @@
       <c r="B50" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="C50" s="7">
-        <v>0</v>
-      </c>
-      <c r="D50" s="7">
-        <v>0</v>
-      </c>
-      <c r="E50" s="7">
-        <v>0</v>
-      </c>
-      <c r="F50" s="8">
-        <v>0</v>
-      </c>
-      <c r="G50" s="7">
-        <v>0</v>
-      </c>
-      <c r="H50" s="7">
-        <v>0</v>
-      </c>
-      <c r="I50" s="7">
-        <v>0</v>
-      </c>
-      <c r="J50" s="8">
-        <v>0</v>
-      </c>
-      <c r="K50" s="7">
-        <v>0</v>
-      </c>
-      <c r="L50" s="7">
-        <v>0</v>
-      </c>
-      <c r="M50" s="7">
-        <v>0</v>
-      </c>
-      <c r="N50" s="8">
-        <v>0</v>
-      </c>
-      <c r="O50" s="7">
-        <v>0</v>
-      </c>
-      <c r="P50" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q50" s="7">
-        <v>0</v>
-      </c>
-      <c r="R50" s="8">
-        <v>0</v>
-      </c>
-      <c r="S50" s="7">
-        <v>0</v>
-      </c>
-      <c r="T50" s="7">
-        <v>0</v>
-      </c>
-      <c r="U50" s="7">
-        <v>0</v>
-      </c>
-      <c r="V50" s="8">
-        <v>0</v>
-      </c>
-      <c r="W50" s="7">
-        <v>0</v>
-      </c>
-      <c r="X50" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y50" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z50" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA50" s="9">
-        <v>0</v>
+      <c r="C50" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="I50" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="J50" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L50" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M50" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="N50" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="O50" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q50" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="R50" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="S50" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="T50" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="U50" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="V50" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="W50" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="X50" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y50" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z50" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA50" s="9" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="51" spans="1:27" ht="17" x14ac:dyDescent="0.25">
@@ -10164,80 +10167,80 @@
       <c r="B51" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="C51" s="7">
-        <v>0</v>
-      </c>
-      <c r="D51" s="7">
-        <v>0</v>
-      </c>
-      <c r="E51" s="7">
-        <v>0</v>
-      </c>
-      <c r="F51" s="8">
-        <v>0</v>
-      </c>
-      <c r="G51" s="7">
-        <v>0</v>
-      </c>
-      <c r="H51" s="7">
-        <v>0</v>
-      </c>
-      <c r="I51" s="7">
-        <v>0</v>
-      </c>
-      <c r="J51" s="8">
-        <v>0</v>
-      </c>
-      <c r="K51" s="7">
-        <v>0</v>
-      </c>
-      <c r="L51" s="7">
-        <v>0</v>
-      </c>
-      <c r="M51" s="7">
-        <v>0</v>
-      </c>
-      <c r="N51" s="8">
-        <v>0</v>
-      </c>
-      <c r="O51" s="7">
-        <v>0</v>
-      </c>
-      <c r="P51" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q51" s="7">
-        <v>0</v>
-      </c>
-      <c r="R51" s="8">
-        <v>0</v>
-      </c>
-      <c r="S51" s="7">
-        <v>0</v>
-      </c>
-      <c r="T51" s="7">
-        <v>0</v>
-      </c>
-      <c r="U51" s="7">
-        <v>0</v>
-      </c>
-      <c r="V51" s="8">
-        <v>0</v>
-      </c>
-      <c r="W51" s="7">
-        <v>0</v>
-      </c>
-      <c r="X51" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y51" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z51" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA51" s="9">
-        <v>0</v>
+      <c r="C51" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H51" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="I51" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="J51" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="K51" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M51" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="N51" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="O51" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q51" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="R51" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="S51" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="T51" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="U51" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="V51" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="W51" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="X51" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y51" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z51" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA51" s="9" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="52" spans="1:27" ht="17" x14ac:dyDescent="0.25">
@@ -10247,80 +10250,80 @@
       <c r="B52" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C52" s="7">
-        <v>0</v>
-      </c>
-      <c r="D52" s="7">
-        <v>0</v>
-      </c>
-      <c r="E52" s="7">
-        <v>0</v>
-      </c>
-      <c r="F52" s="8">
-        <v>0</v>
-      </c>
-      <c r="G52" s="7">
-        <v>0</v>
-      </c>
-      <c r="H52" s="7">
-        <v>0</v>
-      </c>
-      <c r="I52" s="7">
-        <v>0</v>
-      </c>
-      <c r="J52" s="8">
-        <v>0</v>
-      </c>
-      <c r="K52" s="7">
-        <v>0</v>
-      </c>
-      <c r="L52" s="7">
-        <v>0</v>
-      </c>
-      <c r="M52" s="7">
-        <v>0</v>
-      </c>
-      <c r="N52" s="8">
-        <v>0</v>
+      <c r="C52" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="I52" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="J52" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="K52" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L52" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M52" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="N52" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="O52" s="13" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P52" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q52" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="R52" s="8">
-        <v>0</v>
-      </c>
-      <c r="S52" s="7">
-        <v>0</v>
-      </c>
-      <c r="T52" s="7">
-        <v>0</v>
-      </c>
-      <c r="U52" s="7">
-        <v>0</v>
-      </c>
-      <c r="V52" s="8">
-        <v>0</v>
-      </c>
-      <c r="W52" s="7">
-        <v>0</v>
-      </c>
-      <c r="X52" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y52" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z52" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA52" s="9">
-        <v>0</v>
+        <v>98</v>
+      </c>
+      <c r="R52" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="S52" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="T52" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="U52" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="V52" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="W52" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="X52" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y52" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z52" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA52" s="9" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="53" spans="1:27" ht="17" x14ac:dyDescent="0.25">
@@ -10330,80 +10333,80 @@
       <c r="B53" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="C53" s="7">
-        <v>0</v>
-      </c>
-      <c r="D53" s="7">
-        <v>0</v>
-      </c>
-      <c r="E53" s="7">
-        <v>0</v>
-      </c>
-      <c r="F53" s="8">
-        <v>0</v>
-      </c>
-      <c r="G53" s="7">
-        <v>0</v>
-      </c>
-      <c r="H53" s="7">
-        <v>0</v>
-      </c>
-      <c r="I53" s="7">
-        <v>0</v>
-      </c>
-      <c r="J53" s="8">
-        <v>0</v>
-      </c>
-      <c r="K53" s="7">
-        <v>0</v>
-      </c>
-      <c r="L53" s="7">
-        <v>0</v>
-      </c>
-      <c r="M53" s="7">
-        <v>0</v>
-      </c>
-      <c r="N53" s="8">
-        <v>0</v>
-      </c>
-      <c r="O53" s="7">
-        <v>0</v>
-      </c>
-      <c r="P53" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q53" s="7">
-        <v>0</v>
-      </c>
-      <c r="R53" s="8">
-        <v>0</v>
-      </c>
-      <c r="S53" s="7">
-        <v>0</v>
-      </c>
-      <c r="T53" s="7">
-        <v>0</v>
-      </c>
-      <c r="U53" s="7">
-        <v>0</v>
-      </c>
-      <c r="V53" s="8">
-        <v>0</v>
-      </c>
-      <c r="W53" s="7">
-        <v>0</v>
-      </c>
-      <c r="X53" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y53" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z53" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA53" s="9">
-        <v>0</v>
+      <c r="C53" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="I53" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="J53" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="K53" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L53" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M53" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="N53" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="O53" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P53" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q53" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="R53" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="S53" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="T53" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="U53" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="V53" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="W53" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="X53" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y53" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z53" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA53" s="9" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="54" spans="1:27" ht="17" x14ac:dyDescent="0.25">
@@ -10413,80 +10416,80 @@
       <c r="B54" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C54" s="24">
-        <v>0</v>
-      </c>
-      <c r="D54" s="24">
-        <v>0</v>
-      </c>
-      <c r="E54" s="24">
-        <v>0</v>
-      </c>
-      <c r="F54" s="25">
-        <v>0</v>
-      </c>
-      <c r="G54" s="24">
-        <v>0</v>
-      </c>
-      <c r="H54" s="24">
-        <v>0</v>
-      </c>
-      <c r="I54" s="24">
-        <v>0</v>
-      </c>
-      <c r="J54" s="25">
-        <v>0</v>
+      <c r="C54" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D54" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="E54" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="F54" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="G54" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="H54" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="I54" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="J54" s="25" t="s">
+        <v>98</v>
       </c>
       <c r="K54" s="26" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L54" s="26" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M54" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="N54" s="25">
-        <v>0</v>
-      </c>
-      <c r="O54" s="24">
-        <v>0</v>
-      </c>
-      <c r="P54" s="24">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="24">
-        <v>0</v>
-      </c>
-      <c r="R54" s="25">
-        <v>0</v>
-      </c>
-      <c r="S54" s="24">
-        <v>0</v>
-      </c>
-      <c r="T54" s="24">
-        <v>0</v>
-      </c>
-      <c r="U54" s="24">
-        <v>0</v>
-      </c>
-      <c r="V54" s="25">
-        <v>0</v>
-      </c>
-      <c r="W54" s="24">
-        <v>0</v>
-      </c>
-      <c r="X54" s="24">
-        <v>0</v>
-      </c>
-      <c r="Y54" s="24">
-        <v>0</v>
-      </c>
-      <c r="Z54" s="25">
-        <v>0</v>
-      </c>
-      <c r="AA54" s="27">
-        <v>0</v>
+        <v>98</v>
+      </c>
+      <c r="N54" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="O54" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="P54" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q54" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="R54" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="S54" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="T54" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="U54" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="V54" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="W54" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="X54" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y54" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z54" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA54" s="27" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="55" spans="1:27" ht="17" x14ac:dyDescent="0.25">
@@ -10496,80 +10499,80 @@
       <c r="B55" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C55" s="7">
-        <v>0</v>
-      </c>
-      <c r="D55" s="7">
-        <v>0</v>
-      </c>
-      <c r="E55" s="7">
-        <v>0</v>
-      </c>
-      <c r="F55" s="8">
-        <v>0</v>
-      </c>
-      <c r="G55" s="7">
-        <v>0</v>
-      </c>
-      <c r="H55" s="7">
-        <v>0</v>
-      </c>
-      <c r="I55" s="7">
-        <v>0</v>
-      </c>
-      <c r="J55" s="8">
-        <v>0</v>
-      </c>
-      <c r="K55" s="7">
-        <v>0</v>
-      </c>
-      <c r="L55" s="7">
-        <v>0</v>
-      </c>
-      <c r="M55" s="7">
-        <v>0</v>
-      </c>
-      <c r="N55" s="8">
-        <v>0</v>
-      </c>
-      <c r="O55" s="7">
-        <v>0</v>
-      </c>
-      <c r="P55" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q55" s="7">
-        <v>0</v>
-      </c>
-      <c r="R55" s="8">
-        <v>0</v>
-      </c>
-      <c r="S55" s="7">
-        <v>0</v>
-      </c>
-      <c r="T55" s="7">
-        <v>0</v>
-      </c>
-      <c r="U55" s="7">
-        <v>0</v>
-      </c>
-      <c r="V55" s="8">
-        <v>0</v>
-      </c>
-      <c r="W55" s="7">
-        <v>0</v>
-      </c>
-      <c r="X55" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y55" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z55" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA55" s="9">
-        <v>0</v>
+      <c r="C55" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H55" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="I55" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="J55" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="K55" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L55" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M55" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="N55" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="O55" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P55" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q55" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="R55" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="S55" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="T55" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="U55" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="V55" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="W55" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="X55" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y55" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z55" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA55" s="9" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="56" spans="1:27" ht="17" x14ac:dyDescent="0.25">
@@ -10579,80 +10582,80 @@
       <c r="B56" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C56" s="19">
-        <v>0</v>
-      </c>
-      <c r="D56" s="19">
-        <v>0</v>
-      </c>
-      <c r="E56" s="19">
-        <v>0</v>
-      </c>
-      <c r="F56" s="20">
-        <v>0</v>
-      </c>
-      <c r="G56" s="19">
-        <v>0</v>
-      </c>
-      <c r="H56" s="19">
-        <v>0</v>
-      </c>
-      <c r="I56" s="19">
-        <v>0</v>
-      </c>
-      <c r="J56" s="20">
-        <v>0</v>
-      </c>
-      <c r="K56" s="19">
-        <v>0</v>
-      </c>
-      <c r="L56" s="19">
-        <v>0</v>
-      </c>
-      <c r="M56" s="19">
-        <v>0</v>
-      </c>
-      <c r="N56" s="20">
-        <v>0</v>
+      <c r="C56" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="D56" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="E56" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="F56" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="G56" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="H56" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="I56" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="J56" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="K56" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="L56" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="M56" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="N56" s="20" t="s">
+        <v>98</v>
       </c>
       <c r="O56" s="21" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P56" s="21" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q56" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="R56" s="20">
-        <v>0</v>
-      </c>
-      <c r="S56" s="19">
-        <v>0</v>
-      </c>
-      <c r="T56" s="19">
-        <v>0</v>
-      </c>
-      <c r="U56" s="19">
-        <v>0</v>
-      </c>
-      <c r="V56" s="20">
-        <v>0</v>
-      </c>
-      <c r="W56" s="19">
-        <v>0</v>
-      </c>
-      <c r="X56" s="19">
-        <v>0</v>
-      </c>
-      <c r="Y56" s="19">
-        <v>0</v>
-      </c>
-      <c r="Z56" s="20">
-        <v>0</v>
-      </c>
-      <c r="AA56" s="22">
-        <v>0</v>
+        <v>98</v>
+      </c>
+      <c r="R56" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="S56" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="T56" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="U56" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="V56" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="W56" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="X56" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y56" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z56" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA56" s="22" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="57" spans="1:27" ht="17" x14ac:dyDescent="0.25">
@@ -10663,79 +10666,79 @@
         <v>55</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D57" s="14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E57" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="F57" s="8">
-        <v>0</v>
-      </c>
-      <c r="G57" s="7">
-        <v>0</v>
-      </c>
-      <c r="H57" s="7">
-        <v>0</v>
-      </c>
-      <c r="I57" s="7">
-        <v>0</v>
-      </c>
-      <c r="J57" s="8">
-        <v>0</v>
-      </c>
-      <c r="K57" s="7">
-        <v>0</v>
-      </c>
-      <c r="L57" s="7">
-        <v>0</v>
-      </c>
-      <c r="M57" s="7">
-        <v>0</v>
-      </c>
-      <c r="N57" s="8">
-        <v>0</v>
-      </c>
-      <c r="O57" s="7">
-        <v>0</v>
-      </c>
-      <c r="P57" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q57" s="7">
-        <v>0</v>
-      </c>
-      <c r="R57" s="8">
-        <v>0</v>
-      </c>
-      <c r="S57" s="7">
-        <v>0</v>
-      </c>
-      <c r="T57" s="7">
-        <v>0</v>
-      </c>
-      <c r="U57" s="7">
-        <v>0</v>
-      </c>
-      <c r="V57" s="8">
-        <v>0</v>
-      </c>
-      <c r="W57" s="7">
-        <v>0</v>
-      </c>
-      <c r="X57" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y57" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z57" s="8">
-        <v>0</v>
-      </c>
-      <c r="AA57" s="9">
-        <v>0</v>
+        <v>98</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H57" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="I57" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="J57" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="K57" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L57" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M57" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="N57" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="O57" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P57" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q57" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="R57" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="S57" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="T57" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="U57" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="V57" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="W57" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="X57" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y57" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z57" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA57" s="9" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/Classifiche.xlsx
+++ b/Classifiche.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lorenzoparenti/Desktop/Gran Turismo™ 7/github/worldtourbyTLM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B07091C-5283-AD4B-BC61-93B06256342E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF9E587E-75DE-864A-9992-B938A883FACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1280" yWindow="1000" windowWidth="27140" windowHeight="16440" xr2:uid="{0ECEFD28-5025-934F-A4E5-815ACDF49090}"/>
+    <workbookView xWindow="1280" yWindow="1000" windowWidth="27140" windowHeight="16440" activeTab="5" xr2:uid="{0ECEFD28-5025-934F-A4E5-815ACDF49090}"/>
   </bookViews>
   <sheets>
     <sheet name="classifica1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="classifica3" sheetId="3" r:id="rId3"/>
     <sheet name="classifica4" sheetId="4" r:id="rId4"/>
     <sheet name="classifica5" sheetId="6" r:id="rId5"/>
+    <sheet name="lobby" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2900" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3086" uniqueCount="158">
   <si>
     <t>1st</t>
   </si>
@@ -478,13 +479,49 @@
   </si>
   <si>
     <t>id_gt7</t>
+  </si>
+  <si>
+    <t>Live su Twitch</t>
+  </si>
+  <si>
+    <t>HOST:</t>
+  </si>
+  <si>
+    <t>LOBBY 1 martedì ore 21</t>
+  </si>
+  <si>
+    <t>LOBBY 2 martedì ore 22:10</t>
+  </si>
+  <si>
+    <t>TLM_Proietti</t>
+  </si>
+  <si>
+    <t>Canale Twitch</t>
+  </si>
+  <si>
+    <t>team_lion_motorsport_live</t>
+  </si>
+  <si>
+    <t>Canale YouTube</t>
+  </si>
+  <si>
+    <t>TEAM LION MOTORSPORT</t>
+  </si>
+  <si>
+    <t>Live su YouTube</t>
+  </si>
+  <si>
+    <t>LOBBY 3 giovedì ore 21</t>
+  </si>
+  <si>
+    <t>LOBBY 4 giovedì ore 22:10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -571,6 +608,37 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Agency FB"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Agency FB"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Agency FB"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Agency FB"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="2" tint="-9.9978637043366805E-2"/>
+      <name val="Agency FB"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFFC000"/>
+      <name val="Agency FB"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -622,7 +690,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -697,11 +765,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -809,6 +908,53 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1147,8 +1293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E806F17-8342-294C-B7C1-439FEE93D10C}">
   <dimension ref="A1:AB15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11281,4 +11427,759 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D041AC8F-4799-D64C-B96D-59061F88D7D9}">
+  <dimension ref="A1:G38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="F1" s="38"/>
+      <c r="G1" s="39"/>
+    </row>
+    <row r="2" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A2" s="41" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="42"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="41" t="s">
+        <v>147</v>
+      </c>
+      <c r="F2" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="42"/>
+    </row>
+    <row r="3" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A3" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="44" t="s">
+        <v>149</v>
+      </c>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+    </row>
+    <row r="4" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A4" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="47" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="40"/>
+      <c r="E4" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="47" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A5" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="40"/>
+      <c r="E5" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="47" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="47" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A6" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="47" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" s="40"/>
+      <c r="E6" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="47" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A7" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7" s="40"/>
+      <c r="E7" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7" s="47" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A8" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="47" t="s">
+        <v>108</v>
+      </c>
+      <c r="D8" s="40"/>
+      <c r="E8" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="47" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A9" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="47" t="s">
+        <v>109</v>
+      </c>
+      <c r="D9" s="40"/>
+      <c r="E9" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" s="47" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A10" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="D10" s="40"/>
+      <c r="E10" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="47" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A11" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="D11" s="40"/>
+      <c r="E11" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="47" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A12" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="40"/>
+      <c r="E12" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="47" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A13" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="47" t="s">
+        <v>112</v>
+      </c>
+      <c r="D13" s="40"/>
+      <c r="E13" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="47" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A14" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="47" t="s">
+        <v>113</v>
+      </c>
+      <c r="D14" s="40"/>
+      <c r="E14" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="47" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A15" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="47" t="s">
+        <v>114</v>
+      </c>
+      <c r="D15" s="40"/>
+      <c r="E15" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="47" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A16" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="47" t="s">
+        <v>115</v>
+      </c>
+      <c r="D16" s="40"/>
+      <c r="E16" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="47" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A17" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="47" t="s">
+        <v>116</v>
+      </c>
+      <c r="D17" s="40"/>
+      <c r="E17" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+    </row>
+    <row r="18" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A18" s="40"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+    </row>
+    <row r="19" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A19" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42" t="s">
+        <v>152</v>
+      </c>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+    </row>
+    <row r="20" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A20" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42" t="s">
+        <v>154</v>
+      </c>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+    </row>
+    <row r="21" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A21" s="40"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+    </row>
+    <row r="22" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A22" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="B22" s="38"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="F22" s="38"/>
+      <c r="G22" s="39"/>
+    </row>
+    <row r="23" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A23" s="41" t="s">
+        <v>147</v>
+      </c>
+      <c r="B23" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="42"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="41" t="s">
+        <v>147</v>
+      </c>
+      <c r="F23" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" s="42"/>
+    </row>
+    <row r="24" spans="1:7" ht="21" x14ac:dyDescent="0.25">
+      <c r="A24" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="B24" s="53"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="52" t="s">
+        <v>157</v>
+      </c>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+    </row>
+    <row r="25" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A25" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="47" t="s">
+        <v>117</v>
+      </c>
+      <c r="D25" s="40"/>
+      <c r="E25" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="F25" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="G25" s="47" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A26" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="47" t="s">
+        <v>118</v>
+      </c>
+      <c r="D26" s="40"/>
+      <c r="E26" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="F26" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="G26" s="47" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A27" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="40"/>
+      <c r="E27" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="F27" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="G27" s="47" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A28" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="47" t="s">
+        <v>119</v>
+      </c>
+      <c r="D28" s="40"/>
+      <c r="E28" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="F28" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="G28" s="47" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A29" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="47" t="s">
+        <v>120</v>
+      </c>
+      <c r="D29" s="40"/>
+      <c r="E29" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="G29" s="47" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A30" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="47" t="s">
+        <v>121</v>
+      </c>
+      <c r="D30" s="40"/>
+      <c r="E30" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="F30" s="47" t="s">
+        <v>136</v>
+      </c>
+      <c r="G30" s="47" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A31" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="D31" s="40"/>
+      <c r="E31" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="G31" s="47" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A32" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="D32" s="40"/>
+      <c r="E32" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="G32" s="47" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A33" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="C33" s="47" t="s">
+        <v>125</v>
+      </c>
+      <c r="D33" s="40"/>
+      <c r="E33" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="47" t="s">
+        <v>46</v>
+      </c>
+      <c r="G33" s="47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A34" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34" s="40"/>
+      <c r="E34" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="G34" s="47" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A35" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="47" t="s">
+        <v>126</v>
+      </c>
+      <c r="C35" s="47" t="s">
+        <v>127</v>
+      </c>
+      <c r="D35" s="40"/>
+      <c r="E35" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="G35" s="47" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A36" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="D36" s="40"/>
+      <c r="E36" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="47" t="s">
+        <v>141</v>
+      </c>
+      <c r="G36" s="47" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A37" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" s="47" t="s">
+        <v>129</v>
+      </c>
+      <c r="D37" s="40"/>
+      <c r="E37" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="G37" s="47" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A38" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="D38" s="40"/>
+      <c r="E38" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="G38" s="47" t="s">
+        <v>142</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="F2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Classifiche.xlsx
+++ b/Classifiche.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lorenzoparenti/Desktop/Gran Turismo™ 7/github/worldtourbyTLM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1877E4FF-EDE8-C341-8ACC-D2598910723C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE0CBD0-F6F3-E44C-BEDC-84A67AAB34F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1280" yWindow="1000" windowWidth="27140" windowHeight="16440" activeTab="3" xr2:uid="{0ECEFD28-5025-934F-A4E5-815ACDF49090}"/>
+    <workbookView xWindow="1280" yWindow="1000" windowWidth="27140" windowHeight="16440" activeTab="4" xr2:uid="{0ECEFD28-5025-934F-A4E5-815ACDF49090}"/>
   </bookViews>
   <sheets>
     <sheet name="classifica1" sheetId="1" r:id="rId1"/>
@@ -330,9 +330,6 @@
     <t>GTID_Cornazzai73</t>
   </si>
   <si>
-    <t>A.Proietti</t>
-  </si>
-  <si>
     <t>GTRC_FrenkMik93</t>
   </si>
   <si>
@@ -478,6 +475,9 @@
   </si>
   <si>
     <t>DRT-Mirkobenny85</t>
+  </si>
+  <si>
+    <t>TLM_Proietti</t>
   </si>
 </sst>
 </file>
@@ -1148,7 +1148,7 @@
   <dimension ref="A1:AB15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1161,10 +1161,10 @@
         <v>63</v>
       </c>
       <c r="B1" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="C1" s="36" t="s">
         <v>143</v>
-      </c>
-      <c r="C1" s="36" t="s">
-        <v>144</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>65</v>
@@ -1422,7 +1422,7 @@
         <v>53</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>89</v>
@@ -1508,7 +1508,7 @@
         <v>59</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>89</v>
@@ -1594,7 +1594,7 @@
         <v>51</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>89</v>
@@ -1680,7 +1680,7 @@
         <v>55</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>89</v>
@@ -1766,7 +1766,7 @@
         <v>56</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>89</v>
@@ -1852,7 +1852,7 @@
         <v>49</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>89</v>
@@ -2024,7 +2024,7 @@
         <v>50</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>89</v>
@@ -2110,7 +2110,7 @@
         <v>58</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D12" s="13" t="s">
         <v>89</v>
@@ -2196,7 +2196,7 @@
         <v>57</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>89</v>
@@ -2282,7 +2282,7 @@
         <v>52</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>89</v>
@@ -2368,7 +2368,7 @@
         <v>54</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>89</v>
@@ -2456,7 +2456,7 @@
   <dimension ref="A1:AB15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2466,10 +2466,10 @@
         <v>63</v>
       </c>
       <c r="B1" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="C1" s="30" t="s">
         <v>143</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>144</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>65</v>
@@ -2899,7 +2899,7 @@
         <v>23</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>96</v>
+        <v>145</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>89</v>
@@ -2985,7 +2985,7 @@
         <v>91</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>89</v>
@@ -3157,7 +3157,7 @@
         <v>19</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>89</v>
@@ -3243,7 +3243,7 @@
         <v>21</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>89</v>
@@ -3329,7 +3329,7 @@
         <v>20</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>89</v>
@@ -3415,7 +3415,7 @@
         <v>25</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D12" s="13" t="s">
         <v>89</v>
@@ -3501,7 +3501,7 @@
         <v>16</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>89</v>
@@ -3587,7 +3587,7 @@
         <v>15</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>89</v>
@@ -3673,7 +3673,7 @@
         <v>17</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>89</v>
@@ -3771,10 +3771,10 @@
         <v>63</v>
       </c>
       <c r="B1" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="C1" s="30" t="s">
         <v>143</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>144</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>65</v>
@@ -3860,7 +3860,7 @@
         <v>33</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D2" s="7">
         <v>1</v>
@@ -3946,7 +3946,7 @@
         <v>30</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>89</v>
@@ -4118,7 +4118,7 @@
         <v>26</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>89</v>
@@ -4204,7 +4204,7 @@
         <v>31</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>89</v>
@@ -4290,7 +4290,7 @@
         <v>36</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>89</v>
@@ -4376,7 +4376,7 @@
         <v>28</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>89</v>
@@ -4462,7 +4462,7 @@
         <v>27</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>89</v>
@@ -4545,10 +4545,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>123</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>124</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>89</v>
@@ -4717,10 +4717,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>125</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>126</v>
       </c>
       <c r="D12" s="13" t="s">
         <v>89</v>
@@ -4806,7 +4806,7 @@
         <v>29</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>89</v>
@@ -4892,7 +4892,7 @@
         <v>34</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>89</v>
@@ -4978,7 +4978,7 @@
         <v>37</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>89</v>
@@ -5065,7 +5065,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0479F93-8596-F64E-8A7F-7D30B73AB477}">
   <dimension ref="A1:AB15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -5076,10 +5076,10 @@
         <v>63</v>
       </c>
       <c r="B1" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="C1" s="30" t="s">
         <v>143</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>144</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>65</v>
@@ -5162,10 +5162,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>89</v>
@@ -5251,7 +5251,7 @@
         <v>43</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D3" s="7">
         <v>1</v>
@@ -5337,7 +5337,7 @@
         <v>22</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>89</v>
@@ -5420,10 +5420,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>133</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>134</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>89</v>
@@ -5509,7 +5509,7 @@
         <v>38</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>89</v>
@@ -5592,10 +5592,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>135</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>136</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>89</v>
@@ -5681,7 +5681,7 @@
         <v>48</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>89</v>
@@ -5767,7 +5767,7 @@
         <v>47</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>89</v>
@@ -6025,7 +6025,7 @@
         <v>44</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D12" s="13" t="s">
         <v>89</v>
@@ -6108,10 +6108,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>89</v>
@@ -6283,7 +6283,7 @@
         <v>40</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>89</v>
@@ -6370,21 +6370,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1156E37C-CF0D-DE4B-9498-5827CA22F2CB}">
   <dimension ref="A1:AB57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="39" x14ac:dyDescent="0.2">
       <c r="A1" s="29" t="s">
         <v>63</v>
       </c>
       <c r="B1" s="30" t="s">
+        <v>142</v>
+      </c>
+      <c r="C1" s="30" t="s">
         <v>143</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>144</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>65</v>
@@ -6556,7 +6560,7 @@
         <v>33</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D3" s="7">
         <v>1</v>
@@ -6725,10 +6729,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>89</v>
@@ -6814,7 +6818,7 @@
         <v>43</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D6" s="7">
         <v>1</v>
@@ -7072,7 +7076,7 @@
         <v>30</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D9" s="19" t="s">
         <v>89</v>
@@ -7158,7 +7162,7 @@
         <v>22</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>89</v>
@@ -7244,7 +7248,7 @@
         <v>53</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>89</v>
@@ -7502,7 +7506,7 @@
         <v>59</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>89</v>
@@ -7674,7 +7678,7 @@
         <v>26</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>89</v>
@@ -7757,10 +7761,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="C17" s="23" t="s">
         <v>133</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>134</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>89</v>
@@ -7846,7 +7850,7 @@
         <v>51</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>89</v>
@@ -7932,7 +7936,7 @@
         <v>23</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>96</v>
+        <v>145</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>89</v>
@@ -8018,7 +8022,7 @@
         <v>31</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>89</v>
@@ -8104,7 +8108,7 @@
         <v>38</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>89</v>
@@ -8190,7 +8194,7 @@
         <v>91</v>
       </c>
       <c r="C22" s="33" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D22" s="24" t="s">
         <v>89</v>
@@ -8276,7 +8280,7 @@
         <v>55</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>89</v>
@@ -8362,7 +8366,7 @@
         <v>36</v>
       </c>
       <c r="C24" s="34" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D24" s="19" t="s">
         <v>89</v>
@@ -8445,10 +8449,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="C25" s="17" t="s">
         <v>135</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>136</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>89</v>
@@ -8534,7 +8538,7 @@
         <v>56</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>89</v>
@@ -8706,7 +8710,7 @@
         <v>28</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>89</v>
@@ -8792,7 +8796,7 @@
         <v>48</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D29" s="14" t="s">
         <v>89</v>
@@ -8878,7 +8882,7 @@
         <v>49</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D30" s="14" t="s">
         <v>89</v>
@@ -8964,7 +8968,7 @@
         <v>19</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>89</v>
@@ -9050,7 +9054,7 @@
         <v>27</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>89</v>
@@ -9136,7 +9140,7 @@
         <v>47</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>89</v>
@@ -9308,7 +9312,7 @@
         <v>21</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>89</v>
@@ -9391,10 +9395,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="C36" s="17" t="s">
         <v>123</v>
-      </c>
-      <c r="C36" s="17" t="s">
-        <v>124</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>89</v>
@@ -9566,7 +9570,7 @@
         <v>50</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D38" s="7" t="s">
         <v>89</v>
@@ -9652,7 +9656,7 @@
         <v>20</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D39" s="7" t="s">
         <v>89</v>
@@ -9910,7 +9914,7 @@
         <v>58</v>
       </c>
       <c r="C42" s="23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D42" s="14" t="s">
         <v>89</v>
@@ -9996,7 +10000,7 @@
         <v>25</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>89</v>
@@ -10079,10 +10083,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="C44" s="17" t="s">
         <v>125</v>
-      </c>
-      <c r="C44" s="17" t="s">
-        <v>126</v>
       </c>
       <c r="D44" s="13" t="s">
         <v>89</v>
@@ -10168,7 +10172,7 @@
         <v>44</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D45" s="14" t="s">
         <v>89</v>
@@ -10254,7 +10258,7 @@
         <v>57</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D46" s="14" t="s">
         <v>89</v>
@@ -10340,7 +10344,7 @@
         <v>16</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D47" s="14" t="s">
         <v>89</v>
@@ -10426,7 +10430,7 @@
         <v>29</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D48" s="7" t="s">
         <v>89</v>
@@ -10512,7 +10516,7 @@
         <v>41</v>
       </c>
       <c r="C49" s="23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D49" s="7" t="s">
         <v>89</v>
@@ -10598,7 +10602,7 @@
         <v>15</v>
       </c>
       <c r="C50" s="17" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D50" s="7" t="s">
         <v>89</v>
@@ -10770,7 +10774,7 @@
         <v>52</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D52" s="7" t="s">
         <v>89</v>
@@ -10856,7 +10860,7 @@
         <v>54</v>
       </c>
       <c r="C53" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D53" s="7" t="s">
         <v>89</v>
@@ -10942,7 +10946,7 @@
         <v>17</v>
       </c>
       <c r="C54" s="33" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D54" s="24" t="s">
         <v>89</v>
@@ -11028,7 +11032,7 @@
         <v>34</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D55" s="7" t="s">
         <v>89</v>
@@ -11114,7 +11118,7 @@
         <v>37</v>
       </c>
       <c r="C56" s="34" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D56" s="19" t="s">
         <v>89</v>
@@ -11200,7 +11204,7 @@
         <v>40</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D57" s="14" t="s">
         <v>89</v>

--- a/Classifiche.xlsx
+++ b/Classifiche.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lorenzoparenti/Desktop/Gran Turismo™ 7/github/worldtourbyTLM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE0CBD0-F6F3-E44C-BEDC-84A67AAB34F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29FA4F96-A99E-4140-9DC3-925A07B9EAAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1280" yWindow="1000" windowWidth="27140" windowHeight="16440" activeTab="4" xr2:uid="{0ECEFD28-5025-934F-A4E5-815ACDF49090}"/>
+    <workbookView xWindow="920" yWindow="500" windowWidth="27500" windowHeight="16940" activeTab="4" xr2:uid="{0ECEFD28-5025-934F-A4E5-815ACDF49090}"/>
   </bookViews>
   <sheets>
     <sheet name="classifica1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2900" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2900" uniqueCount="145">
   <si>
     <t>1st</t>
   </si>
@@ -373,9 +373,6 @@
   </si>
   <si>
     <t>TLM_GAMMA</t>
-  </si>
-  <si>
-    <t>Il Predestinato</t>
   </si>
   <si>
     <t xml:space="preserve">Tlm-rupetheking </t>
@@ -484,7 +481,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -570,6 +567,12 @@
       <name val="Agency FB"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -1148,7 +1151,7 @@
   <dimension ref="A1:AB15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1161,10 +1164,10 @@
         <v>63</v>
       </c>
       <c r="B1" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1" s="36" t="s">
         <v>142</v>
-      </c>
-      <c r="C1" s="36" t="s">
-        <v>143</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>65</v>
@@ -2110,7 +2113,7 @@
         <v>58</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>111</v>
+        <v>58</v>
       </c>
       <c r="D12" s="13" t="s">
         <v>89</v>
@@ -2196,7 +2199,7 @@
         <v>57</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>89</v>
@@ -2282,7 +2285,7 @@
         <v>52</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>89</v>
@@ -2368,7 +2371,7 @@
         <v>54</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>89</v>
@@ -2447,6 +2450,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2466,10 +2470,10 @@
         <v>63</v>
       </c>
       <c r="B1" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1" s="30" t="s">
         <v>142</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>143</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>65</v>
@@ -2899,7 +2903,7 @@
         <v>23</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>89</v>
@@ -3771,10 +3775,10 @@
         <v>63</v>
       </c>
       <c r="B1" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1" s="30" t="s">
         <v>142</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>143</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>65</v>
@@ -3860,7 +3864,7 @@
         <v>33</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D2" s="7">
         <v>1</v>
@@ -3946,7 +3950,7 @@
         <v>30</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>89</v>
@@ -4118,7 +4122,7 @@
         <v>26</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>89</v>
@@ -4204,7 +4208,7 @@
         <v>31</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>89</v>
@@ -4290,7 +4294,7 @@
         <v>36</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>89</v>
@@ -4376,7 +4380,7 @@
         <v>28</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>89</v>
@@ -4462,7 +4466,7 @@
         <v>27</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>89</v>
@@ -4545,10 +4549,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>122</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>123</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>89</v>
@@ -4717,10 +4721,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>124</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>125</v>
       </c>
       <c r="D12" s="13" t="s">
         <v>89</v>
@@ -4806,7 +4810,7 @@
         <v>29</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>89</v>
@@ -4892,7 +4896,7 @@
         <v>34</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>89</v>
@@ -4978,7 +4982,7 @@
         <v>37</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>89</v>
@@ -5076,10 +5080,10 @@
         <v>63</v>
       </c>
       <c r="B1" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1" s="30" t="s">
         <v>142</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>143</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>65</v>
@@ -5162,10 +5166,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>89</v>
@@ -5251,7 +5255,7 @@
         <v>43</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D3" s="7">
         <v>1</v>
@@ -5337,7 +5341,7 @@
         <v>22</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>89</v>
@@ -5420,10 +5424,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>132</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>133</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>89</v>
@@ -5509,7 +5513,7 @@
         <v>38</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>89</v>
@@ -5592,10 +5596,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>134</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>135</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>89</v>
@@ -5681,7 +5685,7 @@
         <v>48</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>89</v>
@@ -5767,7 +5771,7 @@
         <v>47</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>89</v>
@@ -6025,7 +6029,7 @@
         <v>44</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D12" s="13" t="s">
         <v>89</v>
@@ -6108,10 +6112,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>89</v>
@@ -6283,7 +6287,7 @@
         <v>40</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>89</v>
@@ -6370,8 +6374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1156E37C-CF0D-DE4B-9498-5827CA22F2CB}">
   <dimension ref="A1:AB57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6385,10 +6389,10 @@
         <v>63</v>
       </c>
       <c r="B1" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1" s="30" t="s">
         <v>142</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>143</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>65</v>
@@ -6560,7 +6564,7 @@
         <v>33</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D3" s="7">
         <v>1</v>
@@ -6729,10 +6733,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>89</v>
@@ -6818,7 +6822,7 @@
         <v>43</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D6" s="7">
         <v>1</v>
@@ -7076,7 +7080,7 @@
         <v>30</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D9" s="19" t="s">
         <v>89</v>
@@ -7162,7 +7166,7 @@
         <v>22</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>89</v>
@@ -7678,7 +7682,7 @@
         <v>26</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>89</v>
@@ -7761,10 +7765,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="C17" s="23" t="s">
         <v>132</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>133</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>89</v>
@@ -7936,7 +7940,7 @@
         <v>23</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>89</v>
@@ -8022,7 +8026,7 @@
         <v>31</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>89</v>
@@ -8108,7 +8112,7 @@
         <v>38</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>89</v>
@@ -8366,7 +8370,7 @@
         <v>36</v>
       </c>
       <c r="C24" s="34" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D24" s="19" t="s">
         <v>89</v>
@@ -8449,10 +8453,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="C25" s="17" t="s">
         <v>134</v>
-      </c>
-      <c r="C25" s="17" t="s">
-        <v>135</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>89</v>
@@ -8710,7 +8714,7 @@
         <v>28</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>89</v>
@@ -8796,7 +8800,7 @@
         <v>48</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D29" s="14" t="s">
         <v>89</v>
@@ -9054,7 +9058,7 @@
         <v>27</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>89</v>
@@ -9140,7 +9144,7 @@
         <v>47</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>89</v>
@@ -9395,10 +9399,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="C36" s="17" t="s">
         <v>122</v>
-      </c>
-      <c r="C36" s="17" t="s">
-        <v>123</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>89</v>
@@ -9914,7 +9918,7 @@
         <v>58</v>
       </c>
       <c r="C42" s="23" t="s">
-        <v>111</v>
+        <v>58</v>
       </c>
       <c r="D42" s="14" t="s">
         <v>89</v>
@@ -10083,10 +10087,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="C44" s="17" t="s">
         <v>124</v>
-      </c>
-      <c r="C44" s="17" t="s">
-        <v>125</v>
       </c>
       <c r="D44" s="13" t="s">
         <v>89</v>
@@ -10172,7 +10176,7 @@
         <v>44</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D45" s="14" t="s">
         <v>89</v>
@@ -10258,7 +10262,7 @@
         <v>57</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D46" s="14" t="s">
         <v>89</v>
@@ -10430,7 +10434,7 @@
         <v>29</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D48" s="7" t="s">
         <v>89</v>
@@ -10516,7 +10520,7 @@
         <v>41</v>
       </c>
       <c r="C49" s="23" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D49" s="7" t="s">
         <v>89</v>
@@ -10774,7 +10778,7 @@
         <v>52</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D52" s="7" t="s">
         <v>89</v>
@@ -10860,7 +10864,7 @@
         <v>54</v>
       </c>
       <c r="C53" s="17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D53" s="7" t="s">
         <v>89</v>
@@ -11032,7 +11036,7 @@
         <v>34</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D55" s="7" t="s">
         <v>89</v>
@@ -11118,7 +11122,7 @@
         <v>37</v>
       </c>
       <c r="C56" s="34" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D56" s="19" t="s">
         <v>89</v>
@@ -11204,7 +11208,7 @@
         <v>40</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D57" s="14" t="s">
         <v>89</v>
@@ -11283,6 +11287,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Classifiche.xlsx
+++ b/Classifiche.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lorenzoparenti/Desktop/Gran Turismo™ 7/github/worldtourbyTLM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1344AFAF-4B4F-0E44-88A0-E6BFBFD2AC80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89ED17CF-CE8E-5340-B796-91B7E64FD451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="920" yWindow="500" windowWidth="27500" windowHeight="16940" activeTab="4" xr2:uid="{0ECEFD28-5025-934F-A4E5-815ACDF49090}"/>
   </bookViews>
@@ -16906,7 +16906,7 @@
   <dimension ref="A1:AB57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Classifiche.xlsx
+++ b/Classifiche.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lorenzoparenti/Desktop/Gran Turismo™ 7/github/worldtourbyTLM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8CB164B-A55B-7341-A8C2-D768BD4CB158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F84B8A4-14CE-174B-9047-F6608785FC4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="920" yWindow="500" windowWidth="27500" windowHeight="16940" xr2:uid="{0ECEFD28-5025-934F-A4E5-815ACDF49090}"/>
+    <workbookView xWindow="920" yWindow="500" windowWidth="27500" windowHeight="16940" activeTab="1" xr2:uid="{0ECEFD28-5025-934F-A4E5-815ACDF49090}"/>
   </bookViews>
   <sheets>
     <sheet name="classifica1" sheetId="1" r:id="rId1"/>
@@ -2365,10 +2365,10 @@
         </row>
         <row r="28">
           <cell r="B28" t="str">
-            <v>Freshofthezone</v>
+            <v>Talsigiano</v>
           </cell>
           <cell r="C28" t="str">
-            <v>Frescodizona</v>
+            <v xml:space="preserve">Talsigiano </v>
           </cell>
           <cell r="D28" t="str">
             <v>TLMA</v>
@@ -2377,37 +2377,37 @@
             <v/>
           </cell>
           <cell r="F28">
+            <v>5</v>
+          </cell>
+          <cell r="G28" t="str">
+            <v/>
+          </cell>
+          <cell r="H28">
+            <v>5</v>
+          </cell>
+          <cell r="I28" t="str">
+            <v/>
+          </cell>
+          <cell r="J28">
             <v>8</v>
           </cell>
-          <cell r="G28" t="str">
-            <v/>
-          </cell>
-          <cell r="H28">
+          <cell r="K28" t="str">
+            <v/>
+          </cell>
+          <cell r="L28">
             <v>8</v>
           </cell>
-          <cell r="I28" t="str">
-            <v/>
-          </cell>
-          <cell r="J28">
-            <v>10</v>
-          </cell>
-          <cell r="K28" t="str">
-            <v/>
-          </cell>
-          <cell r="L28">
-            <v>10</v>
-          </cell>
           <cell r="M28" t="str">
             <v/>
           </cell>
           <cell r="N28">
-            <v>4</v>
+            <v>8</v>
           </cell>
           <cell r="O28" t="str">
             <v/>
           </cell>
           <cell r="P28">
-            <v>4</v>
+            <v>8</v>
           </cell>
           <cell r="Q28" t="str">
             <v/>
@@ -2446,15 +2446,15 @@
             <v/>
           </cell>
           <cell r="AC28">
-            <v>22</v>
+            <v>21</v>
           </cell>
         </row>
         <row r="29">
           <cell r="B29" t="str">
-            <v>Talsigiano</v>
+            <v>Freshofthezone</v>
           </cell>
           <cell r="C29" t="str">
-            <v xml:space="preserve">Talsigiano </v>
+            <v>Frescodizona</v>
           </cell>
           <cell r="D29" t="str">
             <v>TLMA</v>
@@ -2463,37 +2463,37 @@
             <v/>
           </cell>
           <cell r="F29">
-            <v>5</v>
+            <v>8</v>
           </cell>
           <cell r="G29" t="str">
             <v/>
           </cell>
           <cell r="H29">
-            <v>5</v>
+            <v>8</v>
           </cell>
           <cell r="I29" t="str">
             <v/>
           </cell>
           <cell r="J29">
-            <v>8</v>
+            <v>10</v>
           </cell>
           <cell r="K29" t="str">
             <v/>
           </cell>
           <cell r="L29">
-            <v>8</v>
+            <v>10</v>
           </cell>
           <cell r="M29" t="str">
             <v/>
           </cell>
-          <cell r="N29">
-            <v>8</v>
+          <cell r="N29" t="str">
+            <v/>
           </cell>
           <cell r="O29" t="str">
             <v/>
           </cell>
-          <cell r="P29">
-            <v>8</v>
+          <cell r="P29" t="str">
+            <v/>
           </cell>
           <cell r="Q29" t="str">
             <v/>
@@ -2532,7 +2532,7 @@
             <v/>
           </cell>
           <cell r="AC29">
-            <v>21</v>
+            <v>18</v>
           </cell>
         </row>
         <row r="30">
@@ -7955,25 +7955,25 @@
         </row>
         <row r="99">
           <cell r="B99" t="str">
-            <v>Freshofthezone</v>
+            <v>jet_morello</v>
           </cell>
           <cell r="C99" t="str">
-            <v>Frescodizona</v>
+            <v>Iaia angelo</v>
           </cell>
           <cell r="D99" t="str">
-            <v>TLMA</v>
+            <v>TLM</v>
           </cell>
           <cell r="E99" t="str">
             <v/>
           </cell>
           <cell r="F99">
-            <v>8</v>
+            <v>12</v>
           </cell>
           <cell r="G99" t="str">
             <v/>
           </cell>
           <cell r="H99">
-            <v>8</v>
+            <v>12</v>
           </cell>
           <cell r="I99" t="str">
             <v/>
@@ -7990,14 +7990,14 @@
           <cell r="M99" t="str">
             <v/>
           </cell>
-          <cell r="N99">
-            <v>4</v>
+          <cell r="N99" t="str">
+            <v/>
           </cell>
           <cell r="O99" t="str">
             <v/>
           </cell>
-          <cell r="P99">
-            <v>4</v>
+          <cell r="P99" t="str">
+            <v/>
           </cell>
           <cell r="Q99" t="str">
             <v/>
@@ -8041,49 +8041,49 @@
         </row>
         <row r="100">
           <cell r="B100" t="str">
-            <v>jet_morello</v>
+            <v>GTRC-ALERASATO74</v>
           </cell>
           <cell r="C100" t="str">
-            <v>Iaia angelo</v>
+            <v xml:space="preserve">Gtrc_AleRasato </v>
           </cell>
           <cell r="D100" t="str">
-            <v>TLM</v>
+            <v>GTRC</v>
           </cell>
           <cell r="E100" t="str">
             <v/>
           </cell>
           <cell r="F100">
-            <v>12</v>
+            <v>8</v>
           </cell>
           <cell r="G100" t="str">
             <v/>
           </cell>
           <cell r="H100">
-            <v>12</v>
+            <v>8</v>
           </cell>
           <cell r="I100" t="str">
             <v/>
           </cell>
           <cell r="J100">
-            <v>10</v>
+            <v>8</v>
           </cell>
           <cell r="K100" t="str">
             <v/>
           </cell>
           <cell r="L100">
-            <v>10</v>
+            <v>8</v>
           </cell>
           <cell r="M100" t="str">
             <v/>
           </cell>
-          <cell r="N100" t="str">
-            <v/>
+          <cell r="N100">
+            <v>5</v>
           </cell>
           <cell r="O100" t="str">
             <v/>
           </cell>
-          <cell r="P100" t="str">
-            <v/>
+          <cell r="P100">
+            <v>5</v>
           </cell>
           <cell r="Q100" t="str">
             <v/>
@@ -8122,30 +8122,30 @@
             <v/>
           </cell>
           <cell r="AC100">
-            <v>22</v>
+            <v>21</v>
           </cell>
         </row>
         <row r="101">
           <cell r="B101" t="str">
-            <v>GTRC-ALERASATO74</v>
+            <v>Talsigiano</v>
           </cell>
           <cell r="C101" t="str">
-            <v xml:space="preserve">Gtrc_AleRasato </v>
+            <v xml:space="preserve">Talsigiano </v>
           </cell>
           <cell r="D101" t="str">
-            <v>GTRC</v>
+            <v>TLMA</v>
           </cell>
           <cell r="E101" t="str">
             <v/>
           </cell>
           <cell r="F101">
-            <v>8</v>
+            <v>5</v>
           </cell>
           <cell r="G101" t="str">
             <v/>
           </cell>
           <cell r="H101">
-            <v>8</v>
+            <v>5</v>
           </cell>
           <cell r="I101" t="str">
             <v/>
@@ -8163,13 +8163,13 @@
             <v/>
           </cell>
           <cell r="N101">
-            <v>5</v>
+            <v>8</v>
           </cell>
           <cell r="O101" t="str">
             <v/>
           </cell>
           <cell r="P101">
-            <v>5</v>
+            <v>8</v>
           </cell>
           <cell r="Q101" t="str">
             <v/>
@@ -8213,49 +8213,49 @@
         </row>
         <row r="102">
           <cell r="B102" t="str">
-            <v>Talsigiano</v>
+            <v>Dimaaa66</v>
           </cell>
           <cell r="C102" t="str">
-            <v xml:space="preserve">Talsigiano </v>
+            <v>Dimaaa66</v>
           </cell>
           <cell r="D102" t="str">
-            <v>TLMA</v>
+            <v>TLM</v>
           </cell>
           <cell r="E102" t="str">
             <v/>
           </cell>
           <cell r="F102">
-            <v>5</v>
+            <v>6</v>
           </cell>
           <cell r="G102" t="str">
             <v/>
           </cell>
           <cell r="H102">
-            <v>5</v>
+            <v>6</v>
           </cell>
           <cell r="I102" t="str">
             <v/>
           </cell>
           <cell r="J102">
-            <v>8</v>
+            <v>4</v>
           </cell>
           <cell r="K102" t="str">
             <v/>
           </cell>
           <cell r="L102">
-            <v>8</v>
+            <v>4</v>
           </cell>
           <cell r="M102" t="str">
             <v/>
           </cell>
           <cell r="N102">
-            <v>8</v>
+            <v>10</v>
           </cell>
           <cell r="O102" t="str">
             <v/>
           </cell>
           <cell r="P102">
-            <v>8</v>
+            <v>10</v>
           </cell>
           <cell r="Q102" t="str">
             <v/>
@@ -8294,54 +8294,54 @@
             <v/>
           </cell>
           <cell r="AC102">
-            <v>21</v>
+            <v>20</v>
           </cell>
         </row>
         <row r="103">
           <cell r="B103" t="str">
-            <v>Dimaaa66</v>
+            <v>Freshofthezone</v>
           </cell>
           <cell r="C103" t="str">
-            <v>Dimaaa66</v>
+            <v>Frescodizona</v>
           </cell>
           <cell r="D103" t="str">
-            <v>TLM</v>
+            <v>TLMA</v>
           </cell>
           <cell r="E103" t="str">
             <v/>
           </cell>
           <cell r="F103">
-            <v>6</v>
+            <v>8</v>
           </cell>
           <cell r="G103" t="str">
             <v/>
           </cell>
           <cell r="H103">
-            <v>6</v>
+            <v>8</v>
           </cell>
           <cell r="I103" t="str">
             <v/>
           </cell>
           <cell r="J103">
-            <v>4</v>
+            <v>10</v>
           </cell>
           <cell r="K103" t="str">
             <v/>
           </cell>
           <cell r="L103">
-            <v>4</v>
+            <v>10</v>
           </cell>
           <cell r="M103" t="str">
             <v/>
           </cell>
-          <cell r="N103">
-            <v>10</v>
+          <cell r="N103" t="str">
+            <v/>
           </cell>
           <cell r="O103" t="str">
             <v/>
           </cell>
-          <cell r="P103">
-            <v>10</v>
+          <cell r="P103" t="str">
+            <v/>
           </cell>
           <cell r="Q103" t="str">
             <v/>
@@ -8380,7 +8380,7 @@
             <v/>
           </cell>
           <cell r="AC103">
-            <v>20</v>
+            <v>18</v>
           </cell>
         </row>
         <row r="104">
@@ -10517,7 +10517,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E806F17-8342-294C-B7C1-439FEE93D10C}">
   <dimension ref="A1:AC15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -12263,8 +12263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CA07F79-DEE4-4D4B-9BF2-455A880E0132}">
   <dimension ref="A1:AC15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13183,11 +13183,11 @@
       </c>
       <c r="B9" s="6" t="str">
         <f>'[1]PER STAMPA'!B28</f>
-        <v>Freshofthezone</v>
+        <v>Talsigiano</v>
       </c>
       <c r="C9" s="6" t="str">
         <f>'[1]PER STAMPA'!C28</f>
-        <v>Frescodizona</v>
+        <v xml:space="preserve">Talsigiano </v>
       </c>
       <c r="D9" s="7" t="str">
         <f>'[1]PER STAMPA'!D28</f>
@@ -13199,7 +13199,7 @@
       </c>
       <c r="F9" s="7">
         <f>'[1]PER STAMPA'!F28</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G9" s="7" t="str">
         <f>'[1]PER STAMPA'!G28</f>
@@ -13207,7 +13207,7 @@
       </c>
       <c r="H9" s="7">
         <f>'[1]PER STAMPA'!H28</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I9" s="7" t="str">
         <f>'[1]PER STAMPA'!I28</f>
@@ -13215,7 +13215,7 @@
       </c>
       <c r="J9" s="7">
         <f>'[1]PER STAMPA'!J28</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K9" s="7" t="str">
         <f>'[1]PER STAMPA'!K28</f>
@@ -13223,7 +13223,7 @@
       </c>
       <c r="L9" s="7">
         <f>'[1]PER STAMPA'!L28</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M9" s="7" t="str">
         <f>'[1]PER STAMPA'!M28</f>
@@ -13231,7 +13231,7 @@
       </c>
       <c r="N9" s="7">
         <f>'[1]PER STAMPA'!N28</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="O9" s="7" t="str">
         <f>'[1]PER STAMPA'!O28</f>
@@ -13239,7 +13239,7 @@
       </c>
       <c r="P9" s="7">
         <f>'[1]PER STAMPA'!P28</f>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Q9" s="7" t="str">
         <f>'[1]PER STAMPA'!Q28</f>
@@ -13291,7 +13291,7 @@
       </c>
       <c r="AC9" s="7">
         <f>'[1]PER STAMPA'!AC28</f>
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:29" ht="17" x14ac:dyDescent="0.2">
@@ -13300,11 +13300,11 @@
       </c>
       <c r="B10" s="6" t="str">
         <f>'[1]PER STAMPA'!B29</f>
-        <v>Talsigiano</v>
+        <v>Freshofthezone</v>
       </c>
       <c r="C10" s="6" t="str">
         <f>'[1]PER STAMPA'!C29</f>
-        <v xml:space="preserve">Talsigiano </v>
+        <v>Frescodizona</v>
       </c>
       <c r="D10" s="7" t="str">
         <f>'[1]PER STAMPA'!D29</f>
@@ -13316,7 +13316,7 @@
       </c>
       <c r="F10" s="7">
         <f>'[1]PER STAMPA'!F29</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G10" s="7" t="str">
         <f>'[1]PER STAMPA'!G29</f>
@@ -13324,7 +13324,7 @@
       </c>
       <c r="H10" s="7">
         <f>'[1]PER STAMPA'!H29</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I10" s="7" t="str">
         <f>'[1]PER STAMPA'!I29</f>
@@ -13332,7 +13332,7 @@
       </c>
       <c r="J10" s="7">
         <f>'[1]PER STAMPA'!J29</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K10" s="7" t="str">
         <f>'[1]PER STAMPA'!K29</f>
@@ -13340,23 +13340,23 @@
       </c>
       <c r="L10" s="7">
         <f>'[1]PER STAMPA'!L29</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M10" s="7" t="str">
         <f>'[1]PER STAMPA'!M29</f>
         <v/>
       </c>
-      <c r="N10" s="7">
+      <c r="N10" s="7" t="str">
         <f>'[1]PER STAMPA'!N29</f>
-        <v>8</v>
+        <v/>
       </c>
       <c r="O10" s="7" t="str">
         <f>'[1]PER STAMPA'!O29</f>
         <v/>
       </c>
-      <c r="P10" s="7">
+      <c r="P10" s="7" t="str">
         <f>'[1]PER STAMPA'!P29</f>
-        <v>8</v>
+        <v/>
       </c>
       <c r="Q10" s="7" t="str">
         <f>'[1]PER STAMPA'!Q29</f>
@@ -13408,7 +13408,7 @@
       </c>
       <c r="AC10" s="7">
         <f>'[1]PER STAMPA'!AC29</f>
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:29" ht="17" x14ac:dyDescent="0.2">
@@ -21105,15 +21105,15 @@
       </c>
       <c r="B32" s="17" t="str">
         <f>'[1]PER STAMPA'!B99</f>
-        <v>Freshofthezone</v>
+        <v>jet_morello</v>
       </c>
       <c r="C32" s="17" t="str">
         <f>'[1]PER STAMPA'!C99</f>
-        <v>Frescodizona</v>
+        <v>Iaia angelo</v>
       </c>
       <c r="D32" s="17" t="str">
         <f>'[1]PER STAMPA'!D99</f>
-        <v>TLMA</v>
+        <v>TLM</v>
       </c>
       <c r="E32" s="7" t="str">
         <f>'[1]PER STAMPA'!E99</f>
@@ -21121,7 +21121,7 @@
       </c>
       <c r="F32" s="7">
         <f>'[1]PER STAMPA'!F99</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G32" s="7" t="str">
         <f>'[1]PER STAMPA'!G99</f>
@@ -21129,7 +21129,7 @@
       </c>
       <c r="H32" s="8">
         <f>'[1]PER STAMPA'!H99</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I32" s="7" t="str">
         <f>'[1]PER STAMPA'!I99</f>
@@ -21151,17 +21151,17 @@
         <f>'[1]PER STAMPA'!M99</f>
         <v/>
       </c>
-      <c r="N32" s="7">
+      <c r="N32" s="7" t="str">
         <f>'[1]PER STAMPA'!N99</f>
-        <v>4</v>
+        <v/>
       </c>
       <c r="O32" s="7" t="str">
         <f>'[1]PER STAMPA'!O99</f>
         <v/>
       </c>
-      <c r="P32" s="8">
+      <c r="P32" s="8" t="str">
         <f>'[1]PER STAMPA'!P99</f>
-        <v>4</v>
+        <v/>
       </c>
       <c r="Q32" s="7" t="str">
         <f>'[1]PER STAMPA'!Q99</f>
@@ -21222,15 +21222,15 @@
       </c>
       <c r="B33" s="17" t="str">
         <f>'[1]PER STAMPA'!B100</f>
-        <v>jet_morello</v>
+        <v>GTRC-ALERASATO74</v>
       </c>
       <c r="C33" s="17" t="str">
         <f>'[1]PER STAMPA'!C100</f>
-        <v>Iaia angelo</v>
+        <v xml:space="preserve">Gtrc_AleRasato </v>
       </c>
       <c r="D33" s="17" t="str">
         <f>'[1]PER STAMPA'!D100</f>
-        <v>TLM</v>
+        <v>GTRC</v>
       </c>
       <c r="E33" s="7" t="str">
         <f>'[1]PER STAMPA'!E100</f>
@@ -21238,7 +21238,7 @@
       </c>
       <c r="F33" s="7">
         <f>'[1]PER STAMPA'!F100</f>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G33" s="7" t="str">
         <f>'[1]PER STAMPA'!G100</f>
@@ -21246,7 +21246,7 @@
       </c>
       <c r="H33" s="8">
         <f>'[1]PER STAMPA'!H100</f>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="I33" s="7" t="str">
         <f>'[1]PER STAMPA'!I100</f>
@@ -21254,7 +21254,7 @@
       </c>
       <c r="J33" s="7">
         <f>'[1]PER STAMPA'!J100</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K33" s="7" t="str">
         <f>'[1]PER STAMPA'!K100</f>
@@ -21262,23 +21262,23 @@
       </c>
       <c r="L33" s="8">
         <f>'[1]PER STAMPA'!L100</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M33" s="7" t="str">
         <f>'[1]PER STAMPA'!M100</f>
         <v/>
       </c>
-      <c r="N33" s="7" t="str">
+      <c r="N33" s="7">
         <f>'[1]PER STAMPA'!N100</f>
-        <v/>
+        <v>5</v>
       </c>
       <c r="O33" s="7" t="str">
         <f>'[1]PER STAMPA'!O100</f>
         <v/>
       </c>
-      <c r="P33" s="8" t="str">
+      <c r="P33" s="8">
         <f>'[1]PER STAMPA'!P100</f>
-        <v/>
+        <v>5</v>
       </c>
       <c r="Q33" s="7" t="str">
         <f>'[1]PER STAMPA'!Q100</f>
@@ -21330,7 +21330,7 @@
       </c>
       <c r="AC33" s="9">
         <f>'[1]PER STAMPA'!AC100</f>
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:29" ht="17" x14ac:dyDescent="0.25">
@@ -21339,15 +21339,15 @@
       </c>
       <c r="B34" s="17" t="str">
         <f>'[1]PER STAMPA'!B101</f>
-        <v>GTRC-ALERASATO74</v>
+        <v>Talsigiano</v>
       </c>
       <c r="C34" s="17" t="str">
         <f>'[1]PER STAMPA'!C101</f>
-        <v xml:space="preserve">Gtrc_AleRasato </v>
+        <v xml:space="preserve">Talsigiano </v>
       </c>
       <c r="D34" s="17" t="str">
         <f>'[1]PER STAMPA'!D101</f>
-        <v>GTRC</v>
+        <v>TLMA</v>
       </c>
       <c r="E34" s="7" t="str">
         <f>'[1]PER STAMPA'!E101</f>
@@ -21355,7 +21355,7 @@
       </c>
       <c r="F34" s="7">
         <f>'[1]PER STAMPA'!F101</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G34" s="7" t="str">
         <f>'[1]PER STAMPA'!G101</f>
@@ -21363,7 +21363,7 @@
       </c>
       <c r="H34" s="8">
         <f>'[1]PER STAMPA'!H101</f>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I34" s="7" t="str">
         <f>'[1]PER STAMPA'!I101</f>
@@ -21387,7 +21387,7 @@
       </c>
       <c r="N34" s="7">
         <f>'[1]PER STAMPA'!N101</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="O34" s="7" t="str">
         <f>'[1]PER STAMPA'!O101</f>
@@ -21395,7 +21395,7 @@
       </c>
       <c r="P34" s="8">
         <f>'[1]PER STAMPA'!P101</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="Q34" s="7" t="str">
         <f>'[1]PER STAMPA'!Q101</f>
@@ -21456,15 +21456,15 @@
       </c>
       <c r="B35" s="17" t="str">
         <f>'[1]PER STAMPA'!B102</f>
-        <v>Talsigiano</v>
+        <v>Dimaaa66</v>
       </c>
       <c r="C35" s="17" t="str">
         <f>'[1]PER STAMPA'!C102</f>
-        <v xml:space="preserve">Talsigiano </v>
+        <v>Dimaaa66</v>
       </c>
       <c r="D35" s="17" t="str">
         <f>'[1]PER STAMPA'!D102</f>
-        <v>TLMA</v>
+        <v>TLM</v>
       </c>
       <c r="E35" s="7" t="str">
         <f>'[1]PER STAMPA'!E102</f>
@@ -21472,7 +21472,7 @@
       </c>
       <c r="F35" s="7">
         <f>'[1]PER STAMPA'!F102</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G35" s="7" t="str">
         <f>'[1]PER STAMPA'!G102</f>
@@ -21480,7 +21480,7 @@
       </c>
       <c r="H35" s="8">
         <f>'[1]PER STAMPA'!H102</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I35" s="7" t="str">
         <f>'[1]PER STAMPA'!I102</f>
@@ -21488,7 +21488,7 @@
       </c>
       <c r="J35" s="7">
         <f>'[1]PER STAMPA'!J102</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K35" s="7" t="str">
         <f>'[1]PER STAMPA'!K102</f>
@@ -21496,7 +21496,7 @@
       </c>
       <c r="L35" s="8">
         <f>'[1]PER STAMPA'!L102</f>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M35" s="7" t="str">
         <f>'[1]PER STAMPA'!M102</f>
@@ -21504,7 +21504,7 @@
       </c>
       <c r="N35" s="7">
         <f>'[1]PER STAMPA'!N102</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O35" s="7" t="str">
         <f>'[1]PER STAMPA'!O102</f>
@@ -21512,7 +21512,7 @@
       </c>
       <c r="P35" s="8">
         <f>'[1]PER STAMPA'!P102</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="Q35" s="7" t="str">
         <f>'[1]PER STAMPA'!Q102</f>
@@ -21564,7 +21564,7 @@
       </c>
       <c r="AC35" s="9">
         <f>'[1]PER STAMPA'!AC102</f>
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:29" ht="17" x14ac:dyDescent="0.25">
@@ -21573,15 +21573,15 @@
       </c>
       <c r="B36" s="17" t="str">
         <f>'[1]PER STAMPA'!B103</f>
-        <v>Dimaaa66</v>
+        <v>Freshofthezone</v>
       </c>
       <c r="C36" s="17" t="str">
         <f>'[1]PER STAMPA'!C103</f>
-        <v>Dimaaa66</v>
+        <v>Frescodizona</v>
       </c>
       <c r="D36" s="17" t="str">
         <f>'[1]PER STAMPA'!D103</f>
-        <v>TLM</v>
+        <v>TLMA</v>
       </c>
       <c r="E36" s="7" t="str">
         <f>'[1]PER STAMPA'!E103</f>
@@ -21589,7 +21589,7 @@
       </c>
       <c r="F36" s="7">
         <f>'[1]PER STAMPA'!F103</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G36" s="7" t="str">
         <f>'[1]PER STAMPA'!G103</f>
@@ -21597,7 +21597,7 @@
       </c>
       <c r="H36" s="8">
         <f>'[1]PER STAMPA'!H103</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I36" s="7" t="str">
         <f>'[1]PER STAMPA'!I103</f>
@@ -21605,7 +21605,7 @@
       </c>
       <c r="J36" s="7">
         <f>'[1]PER STAMPA'!J103</f>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K36" s="7" t="str">
         <f>'[1]PER STAMPA'!K103</f>
@@ -21613,23 +21613,23 @@
       </c>
       <c r="L36" s="8">
         <f>'[1]PER STAMPA'!L103</f>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="M36" s="7" t="str">
         <f>'[1]PER STAMPA'!M103</f>
         <v/>
       </c>
-      <c r="N36" s="7">
+      <c r="N36" s="7" t="str">
         <f>'[1]PER STAMPA'!N103</f>
-        <v>10</v>
+        <v/>
       </c>
       <c r="O36" s="7" t="str">
         <f>'[1]PER STAMPA'!O103</f>
         <v/>
       </c>
-      <c r="P36" s="8">
+      <c r="P36" s="8" t="str">
         <f>'[1]PER STAMPA'!P103</f>
-        <v>10</v>
+        <v/>
       </c>
       <c r="Q36" s="7" t="str">
         <f>'[1]PER STAMPA'!Q103</f>
@@ -21681,7 +21681,7 @@
       </c>
       <c r="AC36" s="9">
         <f>'[1]PER STAMPA'!AC103</f>
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:29" ht="18" x14ac:dyDescent="0.25">
